--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -1741,9 +1741,6 @@
     <t>Measure Directory Name</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>AnalysisType</t>
   </si>
   <si>
@@ -1957,9 +1954,6 @@
     <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
   </si>
   <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Worker Only - </t>
   </si>
   <si>
@@ -2168,6 +2162,12 @@
   </si>
   <si>
     <t>|ASHRAE 189.1-2009 AtticFloor ClimateZone 1-8,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 1,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 2-5,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 6,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 7-8,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 1,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 2-5,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 6,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 7-8,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 1,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 2,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 3,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 4,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 5,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 6,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 7-8,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 1,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 2,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 3,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 4,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 5,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 6,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 7,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 8,ASHRAE 189.1-2009 ExtWall Metal ClimateZone 1-3,ASHRAE 189.1-2009 ExtWall Metal ClimateZone 4-8,ASHRAE 189.1-2009 ExtWall SteelFrame ClimateZone 1-3,ASHRAE 189.1-2009 ExtWall SteelFrame ClimateZone 4-8,ASHRAE 189.1-2009 ExtWall WoodFrame ClimateZone 1-4,ASHRAE 189.1-2009 ExtWall WoodFrame ClimateZone 5,ASHRAE 189.1-2009 ExtWall WoodFrame ClimateZone 6-8,ASHRAE 90.1-2004 AtticFloor ClimateZone 1-5,ASHRAE 90.1-2004 AtticFloor ClimateZone 6-8,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 1-4,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 5-6,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 5-6 1,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 7,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 8,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 1,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 2,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 3-4,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 5-6,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 7,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 8,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 1-2,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 3-4,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 5,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 6,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 7,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 8,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 1-2,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 3,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 4,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 5-6,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 7,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 8,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 1,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 2-3,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 4,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 5,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 6-8,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone 1-4,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone 5-6,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone 7-8,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone alt-res 3,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone alt-res 4-6,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone alt-res 8,ASHRAE 90.1-2004 ExtWall WoodFrame ClimateZone 1-7,ASHRAE 90.1-2004 ExtWall WoodFrame ClimateZone 8,AtticRoof ClimateZone 1-8,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 1,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 2a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 2b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 3a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 3b LAS,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 3b LAX,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 4a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 4b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 4c,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 5a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 5b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 6a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 6b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 7,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 8,CBECS 1980-2004 ExtRoof IEAD ClimateZone 1,CBECS 1980-2004 ExtRoof IEAD ClimateZone 2a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 2b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3b LAS,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3b LAX,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3c,CBECS 1980-2004 ExtRoof IEAD ClimateZone 4a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 4b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 4c,CBECS 1980-2004 ExtRoof IEAD ClimateZone 5a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 5b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 5b 1,CBECS 1980-2004 ExtRoof IEAD ClimateZone 6a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 6b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 7,CBECS 1980-2004 ExtRoof IEAD ClimateZone 8,CBECS 1980-2004 ExtRoof Metal ClimateZone 1,CBECS 1980-2004 ExtRoof Metal ClimateZone 2a,CBECS 1980-2004 ExtRoof Metal ClimateZone 2b,CBECS 1980-2004 ExtRoof Metal ClimateZone 3a,CBECS 1980-2004 ExtRoof Metal ClimateZone 3b LAS,CBECS 1980-2004 ExtRoof Metal ClimateZone 3b LAX,CBECS 1980-2004 ExtRoof Metal ClimateZone 3c,CBECS 1980-2004 ExtRoof Metal ClimateZone 4a,CBECS 1980-2004 ExtRoof Metal ClimateZone 4b,CBECS 1980-2004 ExtRoof Metal ClimateZone 4c,CBECS 1980-2004 ExtRoof Metal ClimateZone 5a,CBECS 1980-2004 ExtRoof Metal ClimateZone 5b,CBECS 1980-2004 ExtRoof Metal ClimateZone 6a,CBECS 1980-2004 ExtRoof Metal ClimateZone 6b,CBECS 1980-2004 ExtRoof Metal ClimateZone 7,CBECS 1980-2004 ExtRoof Metal ClimateZone 8,CBECS 1980-2004 ExtWall Mass ClimateZone 1,CBECS 1980-2004 ExtWall Mass ClimateZone 2a,CBECS 1980-2004 ExtWall Mass ClimateZone 2b,CBECS 1980-2004 ExtWall Mass ClimateZone 3a,CBECS 1980-2004 ExtWall Mass ClimateZone 3b LAS,CBECS 1980-2004 ExtWall Mass ClimateZone 3b LAX,CBECS 1980-2004 ExtWall Mass ClimateZone 3c,CBECS 1980-2004 ExtWall Mass ClimateZone 4a,CBECS 1980-2004 ExtWall Mass ClimateZone 4b,CBECS 1980-2004 ExtWall Mass ClimateZone 4c-5a,CBECS 1980-2004 ExtWall Mass ClimateZone 5b,CBECS 1980-2004 ExtWall Mass ClimateZone 6a,CBECS 1980-2004 ExtWall Mass ClimateZone 6b,CBECS 1980-2004 ExtWall Mass ClimateZone 7,CBECS 1980-2004 ExtWall Mass ClimateZone 8,CBECS 1980-2004 ExtWall Metal ClimateZone 1,CBECS 1980-2004 ExtWall Metal ClimateZone 2a,CBECS 1980-2004 ExtWall Metal ClimateZone 2b,CBECS 1980-2004 ExtWall Metal ClimateZone 3a,CBECS 1980-2004 ExtWall Metal ClimateZone 3b LAS,CBECS 1980-2004 ExtWall Metal ClimateZone 3b LAX,CBECS 1980-2004 ExtWall Metal ClimateZone 3c,CBECS 1980-2004 ExtWall Metal ClimateZone 4a,CBECS 1980-2004 ExtWall Metal ClimateZone 4b,CBECS 1980-2004 ExtWall Metal ClimateZone 4c,CBECS 1980-2004 ExtWall Metal ClimateZone 5,CBECS 1980-2004 ExtWall Metal ClimateZone 6a,CBECS 1980-2004 ExtWall Metal ClimateZone 6b,CBECS 1980-2004 ExtWall Metal ClimateZone 7,CBECS 1980-2004 ExtWall Metal ClimateZone 8,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 1,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 2a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 2b,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 2b 1,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3b LAS,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3b LAX,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3c,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 4a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 4b,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 4c,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 5,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 6a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 6b,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 7,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 8,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 1,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 2a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 2b,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3b LAS,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3b LAX,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3c,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 4a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 4b,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 4c,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 5,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 6a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 6b,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 7,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 8,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 1-3,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 4a,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 4b,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 4c,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 5a,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 5b,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 6,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 7,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 8,CBECS Before-1980 ExtRoof IEAD ClimateZone 1-3,CBECS Before-1980 ExtRoof IEAD ClimateZone 4a,CBECS Before-1980 ExtRoof IEAD ClimateZone 4b,CBECS Before-1980 ExtRoof IEAD ClimateZone 4c,CBECS Before-1980 ExtRoof IEAD ClimateZone 5a,CBECS Before-1980 ExtRoof IEAD ClimateZone 5b,CBECS Before-1980 ExtRoof IEAD ClimateZone 6,CBECS Before-1980 ExtRoof IEAD ClimateZone 7,CBECS Before-1980 ExtRoof IEAD ClimateZone 7 1,CBECS Before-1980 ExtRoof IEAD ClimateZone 8,CBECS Before-1980 ExtWall Mass ClimateZone 1-2,CBECS Before-1980 ExtWall Mass ClimateZone 3a,CBECS Before-1980 ExtWall Mass ClimateZone 3b,CBECS Before-1980 ExtWall Mass ClimateZone 3c,CBECS Before-1980 ExtWall Mass ClimateZone 4a,CBECS Before-1980 ExtWall Mass ClimateZone 4b,CBECS Before-1980 ExtWall Mass ClimateZone 4c,CBECS Before-1980 ExtWall Mass ClimateZone 5a,CBECS Before-1980 ExtWall Mass ClimateZone 5b,CBECS Before-1980 ExtWall Mass ClimateZone 6,CBECS Before-1980 ExtWall Mass ClimateZone 7,CBECS Before-1980 ExtWall Mass ClimateZone 8,CBECS Before-1980 ExtWall Metal ClimateZone 1-2,CBECS Before-1980 ExtWall Metal ClimateZone 3a,CBECS Before-1980 ExtWall Metal ClimateZone 3b,CBECS Before-1980 ExtWall Metal ClimateZone 3c,CBECS Before-1980 ExtWall Metal ClimateZone 4a,CBECS Before-1980 ExtWall Metal ClimateZone 4b,CBECS Before-1980 ExtWall Metal ClimateZone 4c,CBECS Before-1980 ExtWall Metal ClimateZone 5a,CBECS Before-1980 ExtWall Metal ClimateZone 5b,CBECS Before-1980 ExtWall Metal ClimateZone 6,CBECS Before-1980 ExtWall Metal ClimateZone 7,CBECS Before-1980 ExtWall Metal ClimateZone 8,CBECS Before-1980 ExtWall SteelFrame ClimateZone 1-3b,CBECS Before-1980 ExtWall SteelFrame ClimateZone 3c,CBECS Before-1980 ExtWall SteelFrame ClimateZone 4a,CBECS Before-1980 ExtWall SteelFrame ClimateZone 4b,CBECS Before-1980 ExtWall SteelFrame ClimateZone 4c,CBECS Before-1980 ExtWall SteelFrame ClimateZone 5a,CBECS Before-1980 ExtWall SteelFrame ClimateZone 5b,CBECS Before-1980 ExtWall SteelFrame ClimateZone 6,CBECS Before-1980 ExtWall SteelFrame ClimateZone 7,CBECS Before-1980 ExtWall SteelFrame ClimateZone 8,ExtSlab 4in ClimateZone 1-8,ExtSlab 8in ClimateZone 1-8,ExtSlabCarpet 4in ClimateZone 1-8,ExtSlabCarpet 8in ClimateZone 1-8,Exterior Door,Interior Ceiling,Interior Door,Interior Floor,Interior Partition,Interior Wall|</t>
+  </si>
+  <si>
+    <t>1.6.1-rc1</t>
+  </si>
+  <si>
+    <t>0.2.2</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2289,6 +2289,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3722,7 +3728,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3807,6 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5567,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5604,7 +5611,7 @@
         <v>439</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>566</v>
+        <v>708</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>440</v>
@@ -5626,10 +5633,10 @@
         <v>479</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>638</v>
+        <v>707</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5637,7 +5644,7 @@
         <v>480</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>482</v>
@@ -5648,7 +5655,7 @@
         <v>445</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C7" s="38" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
@@ -5659,7 +5666,7 @@
         <v>$0.14/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5691,7 +5698,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="38"/>
       <c r="E9" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5708,7 +5715,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>481</v>
@@ -5719,7 +5726,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>483</v>
@@ -5752,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5782,7 +5789,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -5807,13 +5814,13 @@
         <v>454</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>632</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>633</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>461</v>
@@ -6036,13 +6043,13 @@
         <v>33</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>453</v>
@@ -6056,11 +6063,11 @@
         <v>35</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -6095,8 +6102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6151,14 +6158,14 @@
       <c r="R1" s="24"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -6258,13 +6265,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>71</v>
@@ -6371,10 +6378,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2</v>
@@ -6434,7 +6441,7 @@
         <v>386</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>79</v>
@@ -6514,7 +6521,7 @@
         <v>386</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>79</v>
@@ -6580,7 +6587,7 @@
         <v>65</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>87</v>
@@ -6594,7 +6601,7 @@
         <v>386</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>79</v>
@@ -6660,7 +6667,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>87</v>
@@ -6674,7 +6681,7 @@
         <v>386</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>79</v>
@@ -6740,7 +6747,7 @@
         <v>65</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>87</v>
@@ -6751,13 +6758,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>71</v>
@@ -6768,10 +6775,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>2</v>
@@ -6780,10 +6787,10 @@
         <v>65</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6791,10 +6798,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>2</v>
@@ -6803,10 +6810,10 @@
         <v>65</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6814,10 +6821,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>2</v>
@@ -6826,10 +6833,10 @@
         <v>65</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6837,7 +6844,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>131</v>
@@ -6860,7 +6867,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>173</v>
@@ -6869,40 +6876,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="42">
         <v>0.5</v>
       </c>
-      <c r="K34" s="33">
-        <v>0</v>
-      </c>
-      <c r="L34" s="33">
+      <c r="K34" s="42">
+        <v>0</v>
+      </c>
+      <c r="L34" s="42">
         <v>0.8</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="42">
         <v>0.5</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="42">
         <f>(L34+K34)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R34" s="33" t="s">
-        <v>700</v>
+      <c r="R34" s="42" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6965,7 +6972,7 @@
         <v>65</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6976,7 +6983,7 @@
         <v>172</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>173</v>
@@ -6985,40 +6992,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="33" t="s">
+    <row r="39" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="E39" s="33" t="s">
+      <c r="D39" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="42">
         <v>0.5</v>
       </c>
-      <c r="K39" s="33">
-        <v>0</v>
-      </c>
-      <c r="L39" s="33">
+      <c r="K39" s="42">
+        <v>0</v>
+      </c>
+      <c r="L39" s="42">
         <v>0.8</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="42">
         <v>0.5</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="42">
         <f>(L39+K39)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R39" s="33" t="s">
-        <v>700</v>
+      <c r="R39" s="42" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -7038,7 +7045,7 @@
         <v>65</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>87</v>
@@ -7081,7 +7088,7 @@
         <v>65</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -7092,7 +7099,7 @@
         <v>172</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>173</v>
@@ -7101,40 +7108,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="33" t="s">
+    <row r="44" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="E44" s="33" t="s">
+      <c r="D44" s="42" t="s">
+        <v>705</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="42">
         <v>0.5</v>
       </c>
-      <c r="K44" s="33">
-        <v>0</v>
-      </c>
-      <c r="L44" s="33">
+      <c r="K44" s="42">
+        <v>0</v>
+      </c>
+      <c r="L44" s="42">
         <v>0.8</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M44" s="42">
         <v>0.5</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="42">
         <f>(L44+K44)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R44" s="33" t="s">
-        <v>700</v>
+      <c r="R44" s="42" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -7154,7 +7161,7 @@
         <v>65</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J45" s="33" t="s">
         <v>87</v>
@@ -7197,7 +7204,7 @@
         <v>65</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -7205,13 +7212,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>664</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>665</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>666</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>71</v>
@@ -7222,10 +7229,10 @@
         <v>22</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>2</v>
@@ -7242,10 +7249,10 @@
         <v>22</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>2</v>
@@ -8038,7 +8045,7 @@
     </row>
     <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>550</v>
@@ -8072,10 +8079,10 @@
     </row>
     <row r="6" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>478</v>
@@ -8091,10 +8098,10 @@
     </row>
     <row r="7" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>478</v>
@@ -8110,13 +8117,13 @@
     </row>
     <row r="8" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D8" s="33" t="b">
         <v>0</v>
@@ -8126,13 +8133,13 @@
     </row>
     <row r="9" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D9" s="33" t="b">
         <v>0</v>
@@ -8142,13 +8149,13 @@
     </row>
     <row r="10" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D10" s="33" t="b">
         <v>0</v>
@@ -8159,13 +8166,13 @@
     </row>
     <row r="11" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D11" s="33" t="b">
         <v>0</v>
@@ -8176,13 +8183,13 @@
     </row>
     <row r="12" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D12" s="33" t="b">
         <v>0</v>
@@ -8193,13 +8200,13 @@
     </row>
     <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D13" s="33" t="b">
         <v>0</v>
@@ -8210,13 +8217,13 @@
     </row>
     <row r="14" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D14" s="33" t="b">
         <v>0</v>
@@ -8227,13 +8234,13 @@
     </row>
     <row r="15" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D15" s="33" t="b">
         <v>0</v>
@@ -8244,13 +8251,13 @@
     </row>
     <row r="16" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D16" s="33" t="b">
         <v>0</v>
@@ -8261,13 +8268,13 @@
     </row>
     <row r="17" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D17" s="33" t="b">
         <v>0</v>
@@ -8277,13 +8284,13 @@
     </row>
     <row r="18" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D18" s="33" t="b">
         <v>0</v>
@@ -8293,13 +8300,13 @@
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D19" s="33" t="b">
         <v>0</v>
@@ -8309,13 +8316,13 @@
     </row>
     <row r="20" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D20" s="33" t="b">
         <v>0</v>
@@ -8325,13 +8332,13 @@
     </row>
     <row r="21" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D21" s="33" t="b">
         <v>0</v>
@@ -8341,13 +8348,13 @@
     </row>
     <row r="22" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D22" s="33" t="b">
         <v>0</v>
@@ -8357,13 +8364,13 @@
     </row>
     <row r="23" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D23" s="33" t="b">
         <v>0</v>
@@ -8374,13 +8381,13 @@
     </row>
     <row r="24" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D24" s="33" t="b">
         <v>0</v>
@@ -8391,13 +8398,13 @@
     </row>
     <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D25" s="33" t="b">
         <v>0</v>
@@ -8407,13 +8414,13 @@
     </row>
     <row r="26" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D26" s="33" t="b">
         <v>0</v>
@@ -8423,13 +8430,13 @@
     </row>
     <row r="27" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D27" s="33" t="b">
         <v>0</v>
@@ -8439,13 +8446,13 @@
     </row>
     <row r="28" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D28" s="33" t="b">
         <v>0</v>
@@ -8456,13 +8463,13 @@
     </row>
     <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D29" s="33" t="b">
         <v>0</v>
@@ -8473,13 +8480,13 @@
     </row>
     <row r="30" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D30" s="33" t="b">
         <v>0</v>
@@ -8490,13 +8497,13 @@
     </row>
     <row r="31" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D31" s="33" t="b">
         <v>0</v>
@@ -16717,72 +16724,72 @@
     </row>
     <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>611</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -16793,52 +16800,52 @@
         <v>450</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>451</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" t="s">
         <v>573</v>
       </c>
-      <c r="E11" t="s">
-        <v>574</v>
-      </c>
       <c r="G11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -16849,7 +16856,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G12" t="s">
         <v>475</v>
@@ -16869,42 +16876,42 @@
     <row r="14" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" t="s">
         <v>567</v>
-      </c>
-      <c r="C16" t="s">
-        <v>568</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R16" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="U16" s="33" t="s">
         <v>571</v>
-      </c>
-      <c r="U16" s="33" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G17" t="s">
         <v>460</v>
       </c>
       <c r="H17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>554</v>
@@ -16913,16 +16920,16 @@
         <v>0.01</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -16931,7 +16938,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -16945,7 +16952,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>559</v>
@@ -16954,25 +16961,25 @@
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -16980,68 +16987,68 @@
         <v>558</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J19" s="32">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L20" t="s">
+        <v>599</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>600</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>601</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>555</v>
@@ -17050,27 +17057,27 @@
         <v>556</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M21" s="32">
         <v>0.01</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>557</v>
@@ -17079,7 +17086,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>554</v>
@@ -17088,21 +17095,21 @@
         <v>0.01</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>559</v>
@@ -17111,7 +17118,7 @@
         <v>0.01</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O23" s="34" t="s">
         <v>555</v>
@@ -17122,13 +17129,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L24" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M24" s="32">
         <v>45036000000000</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O24" s="34" t="s">
         <v>557</v>
@@ -17137,18 +17144,18 @@
         <v>2</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M25" s="33">
         <v>100</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -17167,7 +17174,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -2164,10 +2164,10 @@
     <t>|ASHRAE 189.1-2009 AtticFloor ClimateZone 1-8,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 1,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 2-5,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 6,ASHRAE 189.1-2009 ExtRoof IEAD ClimateZone 7-8,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 1,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 2-5,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 6,ASHRAE 189.1-2009 ExtRoof Metal ClimateZone 7-8,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 1,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 2,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 3,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 4,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 5,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 6,ASHRAE 189.1-2009 ExtWall Mass ClimateZone 7-8,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 1,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 2,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 3,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 4,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 5,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 6,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 7,ASHRAE 189.1-2009 ExtWall Mass ClimateZone alt-res 8,ASHRAE 189.1-2009 ExtWall Metal ClimateZone 1-3,ASHRAE 189.1-2009 ExtWall Metal ClimateZone 4-8,ASHRAE 189.1-2009 ExtWall SteelFrame ClimateZone 1-3,ASHRAE 189.1-2009 ExtWall SteelFrame ClimateZone 4-8,ASHRAE 189.1-2009 ExtWall WoodFrame ClimateZone 1-4,ASHRAE 189.1-2009 ExtWall WoodFrame ClimateZone 5,ASHRAE 189.1-2009 ExtWall WoodFrame ClimateZone 6-8,ASHRAE 90.1-2004 AtticFloor ClimateZone 1-5,ASHRAE 90.1-2004 AtticFloor ClimateZone 6-8,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 1-4,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 5-6,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 5-6 1,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 7,ASHRAE 90.1-2004 ExtRoof IEAD ClimateZone 8,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 1,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 2,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 3-4,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 5-6,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 7,ASHRAE 90.1-2004 ExtRoof Metal ClimateZone 8,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 1-2,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 3-4,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 5,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 6,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 7,ASHRAE 90.1-2004 ExtWall Mass ClimateZone 8,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 1-2,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 3,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 4,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 5-6,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 7,ASHRAE 90.1-2004 ExtWall Mass ClimateZone alt-res 8,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 1,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 2-3,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 4,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 5,ASHRAE 90.1-2004 ExtWall Metal ClimateZone 6-8,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone 1-4,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone 5-6,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone 7-8,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone alt-res 3,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone alt-res 4-6,ASHRAE 90.1-2004 ExtWall SteelFrame ClimateZone alt-res 8,ASHRAE 90.1-2004 ExtWall WoodFrame ClimateZone 1-7,ASHRAE 90.1-2004 ExtWall WoodFrame ClimateZone 8,AtticRoof ClimateZone 1-8,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 1,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 2a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 2b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 3a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 3b LAS,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 3b LAX,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 4a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 4b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 4c,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 5a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 5b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 6a,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 6b,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 7,CBECS 1980-2004 ExtRoof AtticFloor ClimateZone 8,CBECS 1980-2004 ExtRoof IEAD ClimateZone 1,CBECS 1980-2004 ExtRoof IEAD ClimateZone 2a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 2b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3b LAS,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3b LAX,CBECS 1980-2004 ExtRoof IEAD ClimateZone 3c,CBECS 1980-2004 ExtRoof IEAD ClimateZone 4a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 4b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 4c,CBECS 1980-2004 ExtRoof IEAD ClimateZone 5a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 5b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 5b 1,CBECS 1980-2004 ExtRoof IEAD ClimateZone 6a,CBECS 1980-2004 ExtRoof IEAD ClimateZone 6b,CBECS 1980-2004 ExtRoof IEAD ClimateZone 7,CBECS 1980-2004 ExtRoof IEAD ClimateZone 8,CBECS 1980-2004 ExtRoof Metal ClimateZone 1,CBECS 1980-2004 ExtRoof Metal ClimateZone 2a,CBECS 1980-2004 ExtRoof Metal ClimateZone 2b,CBECS 1980-2004 ExtRoof Metal ClimateZone 3a,CBECS 1980-2004 ExtRoof Metal ClimateZone 3b LAS,CBECS 1980-2004 ExtRoof Metal ClimateZone 3b LAX,CBECS 1980-2004 ExtRoof Metal ClimateZone 3c,CBECS 1980-2004 ExtRoof Metal ClimateZone 4a,CBECS 1980-2004 ExtRoof Metal ClimateZone 4b,CBECS 1980-2004 ExtRoof Metal ClimateZone 4c,CBECS 1980-2004 ExtRoof Metal ClimateZone 5a,CBECS 1980-2004 ExtRoof Metal ClimateZone 5b,CBECS 1980-2004 ExtRoof Metal ClimateZone 6a,CBECS 1980-2004 ExtRoof Metal ClimateZone 6b,CBECS 1980-2004 ExtRoof Metal ClimateZone 7,CBECS 1980-2004 ExtRoof Metal ClimateZone 8,CBECS 1980-2004 ExtWall Mass ClimateZone 1,CBECS 1980-2004 ExtWall Mass ClimateZone 2a,CBECS 1980-2004 ExtWall Mass ClimateZone 2b,CBECS 1980-2004 ExtWall Mass ClimateZone 3a,CBECS 1980-2004 ExtWall Mass ClimateZone 3b LAS,CBECS 1980-2004 ExtWall Mass ClimateZone 3b LAX,CBECS 1980-2004 ExtWall Mass ClimateZone 3c,CBECS 1980-2004 ExtWall Mass ClimateZone 4a,CBECS 1980-2004 ExtWall Mass ClimateZone 4b,CBECS 1980-2004 ExtWall Mass ClimateZone 4c-5a,CBECS 1980-2004 ExtWall Mass ClimateZone 5b,CBECS 1980-2004 ExtWall Mass ClimateZone 6a,CBECS 1980-2004 ExtWall Mass ClimateZone 6b,CBECS 1980-2004 ExtWall Mass ClimateZone 7,CBECS 1980-2004 ExtWall Mass ClimateZone 8,CBECS 1980-2004 ExtWall Metal ClimateZone 1,CBECS 1980-2004 ExtWall Metal ClimateZone 2a,CBECS 1980-2004 ExtWall Metal ClimateZone 2b,CBECS 1980-2004 ExtWall Metal ClimateZone 3a,CBECS 1980-2004 ExtWall Metal ClimateZone 3b LAS,CBECS 1980-2004 ExtWall Metal ClimateZone 3b LAX,CBECS 1980-2004 ExtWall Metal ClimateZone 3c,CBECS 1980-2004 ExtWall Metal ClimateZone 4a,CBECS 1980-2004 ExtWall Metal ClimateZone 4b,CBECS 1980-2004 ExtWall Metal ClimateZone 4c,CBECS 1980-2004 ExtWall Metal ClimateZone 5,CBECS 1980-2004 ExtWall Metal ClimateZone 6a,CBECS 1980-2004 ExtWall Metal ClimateZone 6b,CBECS 1980-2004 ExtWall Metal ClimateZone 7,CBECS 1980-2004 ExtWall Metal ClimateZone 8,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 1,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 2a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 2b,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 2b 1,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3b LAS,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3b LAX,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 3c,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 4a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 4b,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 4c,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 5,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 6a,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 6b,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 7,CBECS 1980-2004 ExtWall SteelFrame ClimateZone 8,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 1,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 2a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 2b,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3b LAS,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3b LAX,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 3c,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 4a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 4b,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 4c,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 5,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 6a,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 6b,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 7,CBECS 1980-2004 ExtWall WoodFrame ClimateZone 8,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 1-3,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 4a,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 4b,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 4c,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 5a,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 5b,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 6,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 7,CBECS Before-1980 ExtRoof AtticFloor ClimateZone 8,CBECS Before-1980 ExtRoof IEAD ClimateZone 1-3,CBECS Before-1980 ExtRoof IEAD ClimateZone 4a,CBECS Before-1980 ExtRoof IEAD ClimateZone 4b,CBECS Before-1980 ExtRoof IEAD ClimateZone 4c,CBECS Before-1980 ExtRoof IEAD ClimateZone 5a,CBECS Before-1980 ExtRoof IEAD ClimateZone 5b,CBECS Before-1980 ExtRoof IEAD ClimateZone 6,CBECS Before-1980 ExtRoof IEAD ClimateZone 7,CBECS Before-1980 ExtRoof IEAD ClimateZone 7 1,CBECS Before-1980 ExtRoof IEAD ClimateZone 8,CBECS Before-1980 ExtWall Mass ClimateZone 1-2,CBECS Before-1980 ExtWall Mass ClimateZone 3a,CBECS Before-1980 ExtWall Mass ClimateZone 3b,CBECS Before-1980 ExtWall Mass ClimateZone 3c,CBECS Before-1980 ExtWall Mass ClimateZone 4a,CBECS Before-1980 ExtWall Mass ClimateZone 4b,CBECS Before-1980 ExtWall Mass ClimateZone 4c,CBECS Before-1980 ExtWall Mass ClimateZone 5a,CBECS Before-1980 ExtWall Mass ClimateZone 5b,CBECS Before-1980 ExtWall Mass ClimateZone 6,CBECS Before-1980 ExtWall Mass ClimateZone 7,CBECS Before-1980 ExtWall Mass ClimateZone 8,CBECS Before-1980 ExtWall Metal ClimateZone 1-2,CBECS Before-1980 ExtWall Metal ClimateZone 3a,CBECS Before-1980 ExtWall Metal ClimateZone 3b,CBECS Before-1980 ExtWall Metal ClimateZone 3c,CBECS Before-1980 ExtWall Metal ClimateZone 4a,CBECS Before-1980 ExtWall Metal ClimateZone 4b,CBECS Before-1980 ExtWall Metal ClimateZone 4c,CBECS Before-1980 ExtWall Metal ClimateZone 5a,CBECS Before-1980 ExtWall Metal ClimateZone 5b,CBECS Before-1980 ExtWall Metal ClimateZone 6,CBECS Before-1980 ExtWall Metal ClimateZone 7,CBECS Before-1980 ExtWall Metal ClimateZone 8,CBECS Before-1980 ExtWall SteelFrame ClimateZone 1-3b,CBECS Before-1980 ExtWall SteelFrame ClimateZone 3c,CBECS Before-1980 ExtWall SteelFrame ClimateZone 4a,CBECS Before-1980 ExtWall SteelFrame ClimateZone 4b,CBECS Before-1980 ExtWall SteelFrame ClimateZone 4c,CBECS Before-1980 ExtWall SteelFrame ClimateZone 5a,CBECS Before-1980 ExtWall SteelFrame ClimateZone 5b,CBECS Before-1980 ExtWall SteelFrame ClimateZone 6,CBECS Before-1980 ExtWall SteelFrame ClimateZone 7,CBECS Before-1980 ExtWall SteelFrame ClimateZone 8,ExtSlab 4in ClimateZone 1-8,ExtSlab 8in ClimateZone 1-8,ExtSlabCarpet 4in ClimateZone 1-8,ExtSlabCarpet 8in ClimateZone 1-8,Exterior Door,Interior Ceiling,Interior Door,Interior Floor,Interior Partition,Interior Wall|</t>
   </si>
   <si>
-    <t>1.6.1-rc1</t>
-  </si>
-  <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
   </si>
 </sst>
 </file>
@@ -5575,7 +5575,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5611,7 +5611,7 @@
         <v>439</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>440</v>
@@ -5633,7 +5633,7 @@
         <v>479</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>636</v>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="764">
   <si>
     <t>type</t>
   </si>
@@ -2311,6 +2311,27 @@
   </si>
   <si>
     <t>../TrainingMeasures</t>
+  </si>
+  <si>
+    <t>East PF</t>
+  </si>
+  <si>
+    <t>South PF</t>
+  </si>
+  <si>
+    <t>West PF</t>
+  </si>
+  <si>
+    <t>Site EUI</t>
+  </si>
+  <si>
+    <t>Source EUI</t>
+  </si>
+  <si>
+    <t>NG EUI</t>
+  </si>
+  <si>
+    <t>Elec EUI</t>
   </si>
 </sst>
 </file>
@@ -5777,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6077,14 +6098,14 @@
       </c>
       <c r="B25" s="28">
         <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C25" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D25" s="39">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E25" s="33"/>
     </row>
@@ -6337,8 +6358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="C17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7052,6 +7073,9 @@
       <c r="E34" s="42" t="s">
         <v>172</v>
       </c>
+      <c r="F34" s="42" t="s">
+        <v>758</v>
+      </c>
       <c r="G34" s="42" t="s">
         <v>64</v>
       </c>
@@ -7156,6 +7180,9 @@
       <c r="E39" s="42" t="s">
         <v>172</v>
       </c>
+      <c r="F39" s="42" t="s">
+        <v>757</v>
+      </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
       </c>
@@ -7259,6 +7286,9 @@
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>759</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -7477,9 +7507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7597,7 +7627,9 @@
       <c r="A4" s="32" t="s">
         <v>636</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="32" t="s">
+        <v>760</v>
+      </c>
       <c r="C4" s="32" t="s">
         <v>637</v>
       </c>
@@ -7611,7 +7643,7 @@
         <v>64</v>
       </c>
       <c r="G4" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="32" t="b">
         <v>1</v>
@@ -7628,7 +7660,9 @@
       <c r="A5" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>761</v>
+      </c>
       <c r="C5" s="32" t="s">
         <v>640</v>
       </c>
@@ -7659,7 +7693,9 @@
       <c r="A6" s="32" t="s">
         <v>642</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>762</v>
+      </c>
       <c r="C6" s="32" t="s">
         <v>643</v>
       </c>
@@ -7690,7 +7726,9 @@
       <c r="A7" s="32" t="s">
         <v>645</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>763</v>
+      </c>
       <c r="C7" s="32" t="s">
         <v>646</v>
       </c>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="769">
   <si>
     <t>type</t>
   </si>
@@ -1998,9 +1998,6 @@
     <t>Short display names are used for plots and exported to metadata</t>
   </si>
   <si>
-    <t>1.8.0-pre5</t>
-  </si>
-  <si>
     <t>m3.medium</t>
   </si>
   <si>
@@ -2190,30 +2187,18 @@
     <t>Unmet Cooling Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
     <t>hrs</t>
   </si>
   <si>
     <t>Unmet Heating Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
     <t>Total Unmet Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
     <t>Building Area</t>
   </si>
   <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
@@ -2332,6 +2317,36 @@
   </si>
   <si>
     <t>Elec EUI</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_heating</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>standard_reports.total_building_area</t>
+  </si>
+  <si>
+    <t>discrete_uncertain</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[0.1,0.5,0.1,0.2,0.1]</t>
+  </si>
+  <si>
+    <t>1.8.0-pre12</t>
+  </si>
+  <si>
+    <t>South WWR</t>
+  </si>
+  <si>
+    <t>East WWR</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2459,6 +2474,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2469,7 +2490,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1467">
+  <cellStyleXfs count="1481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3937,8 +3958,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4029,8 +4064,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1467">
+  <cellStyles count="1481">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4764,6 +4800,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5497,6 +5540,13 @@
     <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5799,7 +5849,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5859,7 +5909,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>652</v>
+        <v>766</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5876,24 +5926,24 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="28">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server</v>
+        <v>Recommended for Server if large analysis because of storage</v>
       </c>
       <c r="D7" s="36" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 40 GB</v>
+        <v>4 Cores with 850 GB</v>
       </c>
       <c r="E7" s="36" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.28/hour</v>
+        <v>$0.49/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>610</v>
@@ -5904,19 +5954,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only</v>
+        <v>Worker Only - Recommended for Worker</v>
       </c>
       <c r="D8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>2 Cores with 16 GB</v>
+        <v>32 Cores with 320 GB</v>
       </c>
       <c r="E8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.11/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5927,15 +5977,15 @@
         <v>460</v>
       </c>
       <c r="B9" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.39/hour</v>
+        <v>$3.85/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -5956,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5967,7 +6017,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>619</v>
@@ -6000,7 +6050,7 @@
         <v>465</v>
       </c>
       <c r="B16" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>611</v>
@@ -6047,7 +6097,7 @@
         <v>453</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>15</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="33" customFormat="1">
@@ -6076,7 +6126,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Sample Method</v>
+        <v>popSize</v>
       </c>
       <c r="B24" s="28" t="str">
         <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
@@ -6084,145 +6134,145 @@
       </c>
       <c r="C24" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>individual_variables / all_variables</v>
+        <v>Size of initial population</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>454</v>
       </c>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" spans="1:6" ht="28">
+    <row r="25" spans="1:6">
       <c r="A25" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Number of Samples</v>
+        <v>Generations</v>
       </c>
       <c r="B25" s="28">
         <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="C25" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>positive integer (if individual, total simulations is this times each variable)</v>
+        <v>Number of generations</v>
       </c>
       <c r="D25" s="39">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="28">
       <c r="A26" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B26" s="28" t="str">
+        <v>waitGenerations</v>
+      </c>
+      <c r="B26" s="28">
         <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C26" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="1:6" s="33" customFormat="1">
+    <row r="27" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A27" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="28" t="str">
+        <v>bfgsburnin</v>
+      </c>
+      <c r="B27" s="28">
         <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C27" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>The number of generations which are run before the BFGS is ﬁrst used</v>
       </c>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:6" s="33" customFormat="1">
+    <row r="28" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A28" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B28" s="28" t="str">
+        <v>solutionTolerance</v>
+      </c>
+      <c r="B28" s="28">
         <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="C28" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>Numbers within solutionTolerance are considered equal</v>
       </c>
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:6" s="33" customFormat="1">
       <c r="A29" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B29" s="28" t="str">
+        <v>epsilonGradient</v>
+      </c>
+      <c r="B29" s="28">
         <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="C29" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>epsilon in gradient calculation</v>
       </c>
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:6" s="33" customFormat="1">
       <c r="A30" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B30" s="28" t="str">
+        <v>pgtol</v>
+      </c>
+      <c r="B30" s="28">
         <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="C30" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>tolerance on the projected gradient</v>
       </c>
       <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:6" s="33" customFormat="1">
       <c r="A31" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B31" s="28" t="str">
+        <v>factr</v>
+      </c>
+      <c r="B31" s="28">
         <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>45036000000000</v>
       </c>
       <c r="C31" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>Tolerance on delta_F</v>
       </c>
       <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:6" s="33" customFormat="1">
       <c r="A32" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B32" s="28" t="str">
+        <v>maxit</v>
+      </c>
+      <c r="B32" s="28">
         <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="C32" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>Maximum number of iterations</v>
       </c>
       <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
+        <v>normType</v>
       </c>
       <c r="B33" s="28" t="str">
         <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>minkowski</v>
       </c>
       <c r="C33" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
@@ -6234,15 +6284,15 @@
     <row r="34" spans="1:6" s="33" customFormat="1">
       <c r="A34" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B34" s="28" t="str">
+        <v>pPower</v>
+      </c>
+      <c r="B34" s="28">
         <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C34" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <v>Lp norm power</v>
       </c>
       <c r="D34" s="39"/>
     </row>
@@ -6271,7 +6321,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6297,13 +6347,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6358,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6378,7 +6428,8 @@
     <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5" style="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
@@ -6516,20 +6567,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="32" customFormat="1">
-      <c r="A4" s="32" t="b">
+    <row r="4" spans="1:26" s="44" customFormat="1">
+      <c r="A4" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="44" t="s">
+        <v>680</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>681</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="44" t="s">
+        <v>681</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6550,54 +6601,76 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="32" customFormat="1">
-      <c r="B6" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="32" t="s">
+    <row r="6" spans="1:26" s="42" customFormat="1">
+      <c r="B6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="32">
-        <v>2</v>
-      </c>
-      <c r="K6" s="32">
+      <c r="I6" s="42">
+        <v>2</v>
+      </c>
+      <c r="K6" s="42">
         <v>1.8</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M6" s="32">
-        <v>2</v>
-      </c>
-      <c r="N6" s="32">
+      <c r="M6" s="42">
+        <v>2</v>
+      </c>
+      <c r="N6" s="42">
         <f>(L6+K6)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="32" customFormat="1">
-      <c r="B7" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="32" t="s">
+    <row r="7" spans="1:26" s="42" customFormat="1">
+      <c r="B7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="32">
-        <v>2</v>
+      <c r="I7" s="42">
+        <v>2</v>
+      </c>
+      <c r="K7" s="42">
+        <v>1</v>
+      </c>
+      <c r="L7" s="42">
+        <v>4</v>
+      </c>
+      <c r="M7" s="42">
+        <v>2</v>
+      </c>
+      <c r="N7" s="42">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="R7" s="42" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="32" customFormat="1">
@@ -6622,10 +6695,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>683</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>684</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>64</v>
@@ -6668,38 +6741,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="32" customFormat="1">
-      <c r="A12" s="32" t="b">
+    <row r="12" spans="1:26" s="44" customFormat="1">
+      <c r="A12" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="44" t="s">
+        <v>684</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="32" customFormat="1">
-      <c r="B13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="E13" s="32" t="s">
+    <row r="13" spans="1:26" s="42" customFormat="1">
+      <c r="B13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="42">
         <v>0.4</v>
+      </c>
+      <c r="K13" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="N13" s="42">
+        <f>(L13-K13)/6</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="32" customFormat="1">
@@ -6739,41 +6828,57 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="32" customFormat="1">
-      <c r="A16" s="32" t="b">
+    <row r="16" spans="1:26" s="44" customFormat="1">
+      <c r="A16" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="44" t="s">
+        <v>684</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="32" customFormat="1">
-      <c r="B17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" s="32" t="s">
+    <row r="17" spans="1:18" s="42" customFormat="1">
+      <c r="B17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="42">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="32" customFormat="1">
+      <c r="K17" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="N17" s="42">
+        <f>(L17-K17)/6</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="32" customFormat="1">
       <c r="B18" s="32" t="s">
         <v>21</v>
       </c>
@@ -6790,7 +6895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="32" customFormat="1">
+    <row r="19" spans="1:18" s="32" customFormat="1">
       <c r="B19" s="32" t="s">
         <v>21</v>
       </c>
@@ -6810,24 +6915,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="32" customFormat="1">
-      <c r="A20" s="32" t="b">
+    <row r="20" spans="1:18" s="44" customFormat="1">
+      <c r="A20" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="44" t="s">
+        <v>684</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="32" customFormat="1">
+    <row r="21" spans="1:18" s="32" customFormat="1">
       <c r="B21" s="32" t="s">
         <v>21</v>
       </c>
@@ -6844,7 +6949,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="32" customFormat="1">
+    <row r="22" spans="1:18" s="32" customFormat="1">
       <c r="B22" s="32" t="s">
         <v>21</v>
       </c>
@@ -6861,7 +6966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="32" customFormat="1">
+    <row r="23" spans="1:18" s="32" customFormat="1">
       <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
@@ -6875,30 +6980,30 @@
         <v>62</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="32" customFormat="1">
-      <c r="A24" s="32" t="b">
+    <row r="24" spans="1:18" s="44" customFormat="1">
+      <c r="A24" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="44" t="s">
+        <v>684</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="32" customFormat="1">
+    <row r="25" spans="1:18" s="32" customFormat="1">
       <c r="B25" s="32" t="s">
         <v>21</v>
       </c>
@@ -6915,7 +7020,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="32" customFormat="1">
+    <row r="26" spans="1:18" s="32" customFormat="1">
       <c r="B26" s="32" t="s">
         <v>21</v>
       </c>
@@ -6932,7 +7037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="32" customFormat="1">
+    <row r="27" spans="1:18" s="32" customFormat="1">
       <c r="B27" s="32" t="s">
         <v>21</v>
       </c>
@@ -6952,89 +7057,89 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="32" customFormat="1">
-      <c r="A28" s="32" t="b">
+    <row r="28" spans="1:18" s="44" customFormat="1">
+      <c r="A28" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="44" t="s">
+        <v>687</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>688</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="44" t="s">
         <v>689</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="E28" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="32" customFormat="1">
+      <c r="B29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>690</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="32" customFormat="1">
-      <c r="B29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="32" t="s">
+      <c r="E29" s="32" t="s">
         <v>691</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>692</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="J29" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="J29" s="32" t="s">
+    </row>
+    <row r="30" spans="1:18" s="32" customFormat="1">
+      <c r="B30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="32" customFormat="1">
-      <c r="B30" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="32" t="s">
+      <c r="E30" s="32" t="s">
         <v>695</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>696</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="J30" s="32" t="s">
         <v>697</v>
       </c>
-      <c r="J30" s="32" t="s">
+    </row>
+    <row r="31" spans="1:18" s="32" customFormat="1">
+      <c r="B31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="32" customFormat="1">
-      <c r="B31" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="32" t="s">
+      <c r="E31" s="32" t="s">
         <v>699</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>700</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="32" customFormat="1">
+      <c r="B32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>701</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="32" customFormat="1">
-      <c r="B32" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>702</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>128</v>
@@ -7046,20 +7151,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="32" customFormat="1">
-      <c r="A33" s="32" t="b">
+    <row r="33" spans="1:18" s="44" customFormat="1">
+      <c r="A33" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="D33" s="32" t="s">
+      <c r="C33" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="D33" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7068,13 +7173,13 @@
         <v>22</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G34" s="42" t="s">
         <v>64</v>
@@ -7150,23 +7255,23 @@
         <v>62</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="32" customFormat="1">
-      <c r="A38" s="32" t="b">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="44" customFormat="1">
+      <c r="A38" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="D38" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7175,13 +7280,13 @@
         <v>22</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -7220,7 +7325,7 @@
         <v>62</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J40" s="32" t="s">
         <v>84</v>
@@ -7257,23 +7362,23 @@
         <v>62</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="32" customFormat="1">
-      <c r="A43" s="32" t="b">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="44" customFormat="1">
+      <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="D43" s="32" t="s">
+      <c r="C43" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="D43" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7282,13 +7387,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -7364,23 +7469,23 @@
         <v>62</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="32" customFormat="1">
-      <c r="A48" s="32" t="b">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="44" customFormat="1">
+      <c r="A48" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="44" t="s">
+        <v>707</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>708</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="D48" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>710</v>
-      </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7389,10 +7494,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>711</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>712</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>64</v>
@@ -7406,10 +7511,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>713</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>714</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>63</v>
@@ -7507,9 +7612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7628,7 +7733,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>637</v>
@@ -7661,7 +7766,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>640</v>
@@ -7694,7 +7799,7 @@
         <v>642</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>643</v>
@@ -7727,7 +7832,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>646</v>
@@ -7757,15 +7862,15 @@
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1">
       <c r="A8" s="32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>64</v>
@@ -7786,15 +7891,15 @@
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1">
       <c r="A9" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>719</v>
+        <v>760</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>64</v>
@@ -7815,15 +7920,15 @@
     </row>
     <row r="10" spans="1:13" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>64</v>
@@ -7844,15 +7949,15 @@
     </row>
     <row r="11" spans="1:13" s="33" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>64</v>
@@ -7873,12 +7978,12 @@
     </row>
     <row r="12" spans="1:13" s="33" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>470</v>
@@ -7902,12 +8007,12 @@
     </row>
     <row r="13" spans="1:13" s="33" customFormat="1">
       <c r="A13" s="32" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>470</v>
@@ -7931,12 +8036,12 @@
     </row>
     <row r="14" spans="1:13" s="33" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>470</v>
@@ -7960,12 +8065,12 @@
     </row>
     <row r="15" spans="1:13" s="33" customFormat="1">
       <c r="A15" s="32" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>470</v>
@@ -7989,12 +8094,12 @@
     </row>
     <row r="16" spans="1:13" s="33" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>470</v>
@@ -8018,10 +8123,10 @@
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>470</v>
@@ -8041,10 +8146,10 @@
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>470</v>
@@ -8064,10 +8169,10 @@
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>470</v>
@@ -8087,10 +8192,10 @@
     </row>
     <row r="20" spans="1:13" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>470</v>
@@ -8110,10 +8215,10 @@
     </row>
     <row r="21" spans="1:13" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>470</v>
@@ -8133,10 +8238,10 @@
     </row>
     <row r="22" spans="1:13" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>470</v>
@@ -8156,12 +8261,12 @@
     </row>
     <row r="23" spans="1:13" s="33" customFormat="1">
       <c r="A23" s="32" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>470</v>
@@ -8185,12 +8290,12 @@
     </row>
     <row r="24" spans="1:13" s="33" customFormat="1">
       <c r="A24" s="32" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>470</v>
@@ -8214,12 +8319,12 @@
     </row>
     <row r="25" spans="1:13" s="33" customFormat="1">
       <c r="A25" s="32" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>470</v>
@@ -8243,15 +8348,15 @@
     </row>
     <row r="26" spans="1:13" s="33" customFormat="1">
       <c r="A26" s="32" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>64</v>
@@ -16690,7 +16795,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -16698,19 +16803,19 @@
     </row>
     <row r="2" spans="1:7" s="32" customFormat="1">
       <c r="A2" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>656</v>
-      </c>
       <c r="E2" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="32" customFormat="1">
@@ -16724,10 +16829,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="32" customFormat="1">
@@ -16741,10 +16846,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="32" customFormat="1">
@@ -16758,44 +16863,44 @@
         <v>598</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="32" customFormat="1">
       <c r="A6" s="32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>446</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>662</v>
-      </c>
       <c r="E6" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1">
       <c r="A7" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>665</v>
-      </c>
       <c r="E7" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1">
@@ -16809,10 +16914,10 @@
         <v>600</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1">
@@ -16826,10 +16931,10 @@
         <v>602</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16843,10 +16948,10 @@
         <v>603</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1">
@@ -16860,10 +16965,10 @@
         <v>605</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1">
@@ -16871,16 +16976,16 @@
         <v>606</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>607</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1"/>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -4061,10 +4061,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1481">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5848,8 +5848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5977,7 +5977,7 @@
         <v>460</v>
       </c>
       <c r="B9" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="36" t="s">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$3.85/hour</v>
+        <v>$2.17/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -6097,7 +6097,7 @@
         <v>453</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>554</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="33" customFormat="1">
@@ -6126,7 +6126,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>popSize</v>
+        <v>Sample Method</v>
       </c>
       <c r="B24" s="28" t="str">
         <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C24" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Size of initial population</v>
+        <v>individual_variables / all_variables</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>454</v>
@@ -6144,7 +6144,7 @@
     <row r="25" spans="1:6">
       <c r="A25" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Generations</v>
+        <v>Number of Samples</v>
       </c>
       <c r="B25" s="28">
         <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="C25" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Number of generations</v>
+        <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D25" s="39">
         <v>300</v>
@@ -6162,15 +6162,15 @@
     <row r="26" spans="1:6" ht="28">
       <c r="A26" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>waitGenerations</v>
-      </c>
-      <c r="B26" s="28">
+        <v/>
+      </c>
+      <c r="B26" s="28" t="str">
         <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C26" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>If no improvement in waitGenerations of generations, then exit</v>
+        <v/>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="33"/>
@@ -6178,101 +6178,101 @@
     <row r="27" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A27" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>bfgsburnin</v>
-      </c>
-      <c r="B27" s="28">
+        <v/>
+      </c>
+      <c r="B27" s="28" t="str">
         <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C27" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>The number of generations which are run before the BFGS is ﬁrst used</v>
+        <v/>
       </c>
       <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A28" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>solutionTolerance</v>
-      </c>
-      <c r="B28" s="28">
+        <v/>
+      </c>
+      <c r="B28" s="28" t="str">
         <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="C28" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Numbers within solutionTolerance are considered equal</v>
+        <v/>
       </c>
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:6" s="33" customFormat="1">
       <c r="A29" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>epsilonGradient</v>
-      </c>
-      <c r="B29" s="28">
+        <v/>
+      </c>
+      <c r="B29" s="28" t="str">
         <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="C29" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>epsilon in gradient calculation</v>
+        <v/>
       </c>
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:6" s="33" customFormat="1">
       <c r="A30" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>pgtol</v>
-      </c>
-      <c r="B30" s="28">
+        <v/>
+      </c>
+      <c r="B30" s="28" t="str">
         <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="C30" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>tolerance on the projected gradient</v>
+        <v/>
       </c>
       <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:6" s="33" customFormat="1">
       <c r="A31" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>factr</v>
-      </c>
-      <c r="B31" s="28">
+        <v/>
+      </c>
+      <c r="B31" s="28" t="str">
         <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>45036000000000</v>
+        <v/>
       </c>
       <c r="C31" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Tolerance on delta_F</v>
+        <v/>
       </c>
       <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:6" s="33" customFormat="1">
       <c r="A32" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>maxit</v>
-      </c>
-      <c r="B32" s="28">
+        <v/>
+      </c>
+      <c r="B32" s="28" t="str">
         <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="C32" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Maximum number of iterations</v>
+        <v/>
       </c>
       <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>normType</v>
+        <v/>
       </c>
       <c r="B33" s="28" t="str">
         <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>minkowski</v>
+        <v/>
       </c>
       <c r="C33" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
@@ -6284,15 +6284,15 @@
     <row r="34" spans="1:6" s="33" customFormat="1">
       <c r="A34" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>pPower</v>
-      </c>
-      <c r="B34" s="28">
+        <v/>
+      </c>
+      <c r="B34" s="28" t="str">
         <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="C34" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Lp norm power</v>
+        <v/>
       </c>
       <c r="D34" s="39"/>
     </row>
@@ -6408,7 +6408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6465,14 +6465,14 @@
       <c r="R1" s="24"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
@@ -6567,20 +6567,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="44" customFormat="1">
-      <c r="A4" s="44" t="b">
+    <row r="4" spans="1:26" s="43" customFormat="1">
+      <c r="A4" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>680</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>681</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>681</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6741,20 +6741,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="44" customFormat="1">
-      <c r="A12" s="44" t="b">
+    <row r="12" spans="1:26" s="43" customFormat="1">
+      <c r="A12" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>684</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6828,20 +6828,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="44" customFormat="1">
-      <c r="A16" s="44" t="b">
+    <row r="16" spans="1:26" s="43" customFormat="1">
+      <c r="A16" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>684</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6915,20 +6915,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="44" customFormat="1">
-      <c r="A20" s="44" t="b">
+    <row r="20" spans="1:18" s="43" customFormat="1">
+      <c r="A20" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>684</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6986,20 +6986,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="44" customFormat="1">
-      <c r="A24" s="44" t="b">
+    <row r="24" spans="1:18" s="43" customFormat="1">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>684</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7057,20 +7057,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="44" customFormat="1">
-      <c r="A28" s="44" t="b">
+    <row r="28" spans="1:18" s="43" customFormat="1">
+      <c r="A28" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>687</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>688</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="43" t="s">
         <v>689</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7151,20 +7151,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1">
-      <c r="A33" s="44" t="b">
+    <row r="33" spans="1:18" s="43" customFormat="1">
+      <c r="A33" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7258,20 +7258,20 @@
         <v>704</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="44" customFormat="1">
-      <c r="A38" s="44" t="b">
+    <row r="38" spans="1:18" s="43" customFormat="1">
+      <c r="A38" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7365,20 +7365,20 @@
         <v>704</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="44" customFormat="1">
-      <c r="A43" s="44" t="b">
+    <row r="43" spans="1:18" s="43" customFormat="1">
+      <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7472,20 +7472,20 @@
         <v>704</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="44" customFormat="1">
-      <c r="A48" s="44" t="b">
+    <row r="48" spans="1:18" s="43" customFormat="1">
+      <c r="A48" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="43" t="s">
         <v>707</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="43" t="s">
         <v>68</v>
       </c>
     </row>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1986,9 +1986,6 @@
     <t>standard_report_legacy.total_electricity</t>
   </si>
   <si>
-    <t>0.3.3</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2347,6 +2344,9 @@
   </si>
   <si>
     <t>East WWR</t>
+  </si>
+  <si>
+    <t>0.3.5</t>
   </si>
 </sst>
 </file>
@@ -3973,7 +3973,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4064,6 +4064,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1481">
@@ -5849,7 +5852,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5886,8 +5889,8 @@
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>648</v>
+      <c r="B3" s="45" t="s">
+        <v>768</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5909,7 +5912,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5931,7 +5934,7 @@
         <v>442</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -5981,7 +5984,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
@@ -6006,7 +6009,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -6017,7 +6020,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>619</v>
@@ -6141,7 +6144,7 @@
       </c>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="28">
       <c r="A25" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
@@ -6159,7 +6162,7 @@
       </c>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6">
       <c r="A26" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6175,7 +6178,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="1:6" s="33" customFormat="1" ht="28">
+    <row r="27" spans="1:6" s="33" customFormat="1">
       <c r="A27" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6190,7 +6193,7 @@
       </c>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:6" s="33" customFormat="1" ht="28">
+    <row r="28" spans="1:6" s="33" customFormat="1">
       <c r="A28" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6321,7 +6324,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6347,13 +6350,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6408,7 +6411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6507,7 +6510,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -6572,13 +6575,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>680</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>681</v>
-      </c>
       <c r="D4" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>68</v>
@@ -6664,13 +6667,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P7" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q7" s="42" t="s">
         <v>764</v>
       </c>
-      <c r="Q7" s="42" t="s">
-        <v>765</v>
-      </c>
       <c r="R7" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="32" customFormat="1">
@@ -6695,10 +6698,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>682</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>683</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>64</v>
@@ -6749,7 +6752,7 @@
         <v>383</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>76</v>
@@ -6763,7 +6766,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>77</v>
@@ -6836,7 +6839,7 @@
         <v>383</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>76</v>
@@ -6850,7 +6853,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>77</v>
@@ -6909,7 +6912,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>84</v>
@@ -6923,7 +6926,7 @@
         <v>383</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>76</v>
@@ -6980,7 +6983,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>84</v>
@@ -6994,7 +6997,7 @@
         <v>383</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>76</v>
@@ -7062,13 +7065,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="43" t="s">
+        <v>686</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>687</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="D28" s="43" t="s">
         <v>688</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>689</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>68</v>
@@ -7079,19 +7082,19 @@
         <v>21</v>
       </c>
       <c r="D29" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>690</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>691</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="J29" s="32" t="s">
         <v>692</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="32" customFormat="1">
@@ -7099,19 +7102,19 @@
         <v>21</v>
       </c>
       <c r="D30" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>694</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>695</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="J30" s="32" t="s">
         <v>696</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1">
@@ -7119,19 +7122,19 @@
         <v>21</v>
       </c>
       <c r="D31" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>698</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>699</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1">
@@ -7139,7 +7142,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>128</v>
@@ -7159,7 +7162,7 @@
         <v>169</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>170</v>
@@ -7173,13 +7176,13 @@
         <v>22</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G34" s="42" t="s">
         <v>64</v>
@@ -7255,7 +7258,7 @@
         <v>62</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="43" customFormat="1">
@@ -7266,7 +7269,7 @@
         <v>169</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>170</v>
@@ -7280,13 +7283,13 @@
         <v>22</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -7325,7 +7328,7 @@
         <v>62</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J40" s="32" t="s">
         <v>84</v>
@@ -7362,7 +7365,7 @@
         <v>62</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="43" customFormat="1">
@@ -7373,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>170</v>
@@ -7387,13 +7390,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -7469,7 +7472,7 @@
         <v>62</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="43" customFormat="1">
@@ -7477,13 +7480,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="C48" s="43" t="s">
         <v>707</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="D48" s="43" t="s">
         <v>708</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>709</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>68</v>
@@ -7494,10 +7497,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="32" t="s">
+        <v>709</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>710</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>711</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>64</v>
@@ -7511,10 +7514,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>712</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>713</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>63</v>
@@ -7656,7 +7659,7 @@
         <v>461</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>622</v>
@@ -7694,7 +7697,7 @@
         <v>629</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>630</v>
@@ -7733,7 +7736,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>637</v>
@@ -7766,7 +7769,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>640</v>
@@ -7799,7 +7802,7 @@
         <v>642</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>643</v>
@@ -7832,7 +7835,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>646</v>
@@ -7862,15 +7865,15 @@
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1">
       <c r="A8" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>64</v>
@@ -7891,15 +7894,15 @@
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1">
       <c r="A9" s="32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>64</v>
@@ -7920,15 +7923,15 @@
     </row>
     <row r="10" spans="1:13" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>64</v>
@@ -7949,15 +7952,15 @@
     </row>
     <row r="11" spans="1:13" s="33" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>64</v>
@@ -7978,12 +7981,12 @@
     </row>
     <row r="12" spans="1:13" s="33" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>470</v>
@@ -8007,12 +8010,12 @@
     </row>
     <row r="13" spans="1:13" s="33" customFormat="1">
       <c r="A13" s="32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>470</v>
@@ -8036,12 +8039,12 @@
     </row>
     <row r="14" spans="1:13" s="33" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>470</v>
@@ -8065,12 +8068,12 @@
     </row>
     <row r="15" spans="1:13" s="33" customFormat="1">
       <c r="A15" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>470</v>
@@ -8094,12 +8097,12 @@
     </row>
     <row r="16" spans="1:13" s="33" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>470</v>
@@ -8123,10 +8126,10 @@
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>730</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>731</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>470</v>
@@ -8146,10 +8149,10 @@
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>732</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>733</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>470</v>
@@ -8169,10 +8172,10 @@
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>734</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>735</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>470</v>
@@ -8192,10 +8195,10 @@
     </row>
     <row r="20" spans="1:13" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>736</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>737</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>470</v>
@@ -8215,10 +8218,10 @@
     </row>
     <row r="21" spans="1:13" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>738</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>739</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>470</v>
@@ -8238,10 +8241,10 @@
     </row>
     <row r="22" spans="1:13" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>740</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>741</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>470</v>
@@ -8261,12 +8264,12 @@
     </row>
     <row r="23" spans="1:13" s="33" customFormat="1">
       <c r="A23" s="32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>470</v>
@@ -8290,12 +8293,12 @@
     </row>
     <row r="24" spans="1:13" s="33" customFormat="1">
       <c r="A24" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>470</v>
@@ -8319,12 +8322,12 @@
     </row>
     <row r="25" spans="1:13" s="33" customFormat="1">
       <c r="A25" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>470</v>
@@ -8348,15 +8351,15 @@
     </row>
     <row r="26" spans="1:13" s="33" customFormat="1">
       <c r="A26" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>749</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>750</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>64</v>
@@ -16795,7 +16798,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -16803,19 +16806,19 @@
     </row>
     <row r="2" spans="1:7" s="32" customFormat="1">
       <c r="A2" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>655</v>
-      </c>
       <c r="E2" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="32" customFormat="1">
@@ -16829,10 +16832,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="32" customFormat="1">
@@ -16846,10 +16849,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="32" customFormat="1">
@@ -16863,44 +16866,44 @@
         <v>598</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="32" customFormat="1">
       <c r="A6" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>446</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>660</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>661</v>
-      </c>
       <c r="E6" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1">
       <c r="A7" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>663</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>664</v>
-      </c>
       <c r="E7" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1">
@@ -16914,10 +16917,10 @@
         <v>600</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1">
@@ -16931,10 +16934,10 @@
         <v>602</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16948,10 +16951,10 @@
         <v>603</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1">
@@ -16965,10 +16968,10 @@
         <v>605</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1">
@@ -16976,16 +16979,16 @@
         <v>606</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>607</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1"/>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2292,9 +2292,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>../TrainingMeasures</t>
-  </si>
-  <si>
     <t>East PF</t>
   </si>
   <si>
@@ -2347,6 +2344,9 @@
   </si>
   <si>
     <t>0.3.5</t>
+  </si>
+  <si>
+    <t>../training_measures</t>
   </si>
 </sst>
 </file>
@@ -4062,11 +4062,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1481">
@@ -5852,7 +5852,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5889,8 +5889,8 @@
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>768</v>
+      <c r="B3" s="44" t="s">
+        <v>767</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5912,7 +5912,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -6020,7 +6020,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>619</v>
@@ -6468,14 +6468,14 @@
       <c r="R1" s="24"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
@@ -6667,13 +6667,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P7" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q7" s="42" t="s">
         <v>763</v>
       </c>
-      <c r="Q7" s="42" t="s">
-        <v>764</v>
-      </c>
       <c r="R7" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="32" customFormat="1">
@@ -6766,7 +6766,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>77</v>
@@ -6853,7 +6853,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>77</v>
@@ -7182,7 +7182,7 @@
         <v>172</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G34" s="42" t="s">
         <v>64</v>
@@ -7289,7 +7289,7 @@
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -7396,7 +7396,7 @@
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -7736,7 +7736,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>637</v>
@@ -7769,7 +7769,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>640</v>
@@ -7802,7 +7802,7 @@
         <v>642</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>643</v>
@@ -7835,7 +7835,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>646</v>
@@ -7870,7 +7870,7 @@
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>714</v>
@@ -7899,7 +7899,7 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>714</v>
@@ -7928,7 +7928,7 @@
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>714</v>
@@ -7957,7 +7957,7 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>718</v>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -2334,9 +2334,6 @@
     <t>[0.1,0.5,0.1,0.2,0.1]</t>
   </si>
   <si>
-    <t>1.8.0-pre12</t>
-  </si>
-  <si>
     <t>South WWR</t>
   </si>
   <si>
@@ -2347,6 +2344,9 @@
   </si>
   <si>
     <t>../training_measures</t>
+  </si>
+  <si>
+    <t>1.8.0-rc2</t>
   </si>
 </sst>
 </file>
@@ -5852,7 +5852,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5890,7 +5890,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5912,7 +5912,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5957,7 +5957,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5965,11 +5965,11 @@
       </c>
       <c r="D8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>32 Cores with 320 GB</v>
+        <v>16 Cores with 160 GB</v>
       </c>
       <c r="E8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$1.68/hour</v>
+        <v>$0.84/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$2.17/hour</v>
+        <v>$1.33/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -6020,7 +6020,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>619</v>
@@ -6766,7 +6766,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>77</v>
@@ -6853,7 +6853,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>77</v>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="771">
   <si>
     <t>type</t>
   </si>
@@ -2016,24 +2016,6 @@
     <t>80 GB</t>
   </si>
   <si>
-    <t>m2.2xlarge</t>
-  </si>
-  <si>
-    <t>$0.49/hour</t>
-  </si>
-  <si>
-    <t>850 GB</t>
-  </si>
-  <si>
-    <t>m2.4xlarge</t>
-  </si>
-  <si>
-    <t>$0.98/hour</t>
-  </si>
-  <si>
-    <t>840 GB</t>
-  </si>
-  <si>
     <t>16 GB</t>
   </si>
   <si>
@@ -2055,12 +2037,6 @@
     <t>Recommended for Server if large analysis because of storage</t>
   </si>
   <si>
-    <t>Worker Only</t>
-  </si>
-  <si>
-    <t>Worker Only - Recommended for Worker</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2340,13 +2316,43 @@
     <t>East WWR</t>
   </si>
   <si>
-    <t>0.3.5</t>
-  </si>
-  <si>
     <t>../training_measures</t>
   </si>
   <si>
-    <t>1.8.0-rc2</t>
+    <t>0.3.6</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>AWS Tag</t>
+  </si>
+  <si>
+    <t>org=5500</t>
+  </si>
+  <si>
+    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
+  </si>
+  <si>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
   </si>
 </sst>
 </file>
@@ -5849,10 +5855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5890,7 +5896,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5912,7 +5918,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5934,19 +5940,19 @@
         <v>442</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>658</v>
+        <v>595</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server if large analysis because of storage</v>
+        <v>Recommended for Server</v>
       </c>
       <c r="D7" s="36" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 850 GB</v>
+        <v>4 Cores with 40 GB</v>
       </c>
       <c r="E7" s="36" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.49/hour</v>
+        <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>610</v>
@@ -5957,19 +5963,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>604</v>
+        <v>440</v>
       </c>
       <c r="C8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only - Recommended for Worker</v>
+        <v>Recommended for worker</v>
       </c>
       <c r="D8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>16 Cores with 160 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.84/hour</v>
+        <v>$0.42/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5984,54 +5990,57 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="36" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$1.33/hour</v>
+        <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1">
-      <c r="A11" s="11" t="s">
+    <row r="10" spans="1:6" s="33" customFormat="1" ht="28">
+      <c r="A10" s="33" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="12" customFormat="1">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>619</v>
+        <v>670</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>452</v>
+        <v>758</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>619</v>
@@ -6039,358 +6048,369 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>437</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="26" t="b">
+        <v>464</v>
+      </c>
+      <c r="B16" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>611</v>
+      <c r="F16" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>437</v>
+        <v>465</v>
+      </c>
+      <c r="B17" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A20" s="11" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>612</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="33" customFormat="1">
-      <c r="B22" s="28"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:6" s="33" customFormat="1">
+      <c r="B23" s="28"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A24" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B24" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+    <row r="25" spans="1:6">
+      <c r="A25" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Sample Method</v>
       </c>
-      <c r="B24" s="28" t="str">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B25" s="28" t="str">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>all_variables</v>
       </c>
-      <c r="C24" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C25" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>individual_variables / all_variables</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D25" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="1:6" ht="28">
-      <c r="A25" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:6" ht="28">
+      <c r="A26" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
       </c>
-      <c r="B25" s="28">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B26" s="28">
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>300</v>
       </c>
-      <c r="C25" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C26" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D26" s="39">
         <v>300</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
-      <c r="B26" s="28" t="str">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B27" s="28" t="str">
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
-      <c r="C26" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C27" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:6" s="33" customFormat="1">
-      <c r="A27" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="28" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C27" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
       <c r="D27" s="39"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:6" s="33" customFormat="1">
       <c r="A28" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B28" s="28" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C28" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:6" s="33" customFormat="1">
       <c r="A29" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B29" s="28" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C29" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:6" s="33" customFormat="1">
       <c r="A30" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B30" s="28" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C30" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:6" s="33" customFormat="1">
       <c r="A31" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B31" s="28" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C31" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:6" s="33" customFormat="1">
       <c r="A32" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B32" s="28" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C32" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" s="33" customFormat="1">
       <c r="A33" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="28" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="1:6" s="33" customFormat="1">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="28" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="37" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D34" s="39"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:6" s="33" customFormat="1">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A36" s="11" t="s">
+      <c r="A35" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B35" s="28" t="str">
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C35" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D35" s="39"/>
+    </row>
+    <row r="36" spans="1:6" s="33" customFormat="1">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B37" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A39" s="11" t="s">
+      <c r="B38" s="38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A40" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="13" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
-      <c r="A40" s="33" t="s">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="27" t="s">
-        <v>676</v>
-      </c>
-      <c r="C40" s="21" t="s">
+      <c r="B41" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A42" s="11" t="s">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B43" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="13" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
       <formula1>TrueFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6575,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>68</v>
@@ -6667,13 +6687,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="R7" s="42" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="32" customFormat="1">
@@ -6698,10 +6718,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>64</v>
@@ -6752,7 +6772,7 @@
         <v>383</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>76</v>
@@ -6766,7 +6786,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>77</v>
@@ -6839,7 +6859,7 @@
         <v>383</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>76</v>
@@ -6853,7 +6873,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>77</v>
@@ -6912,7 +6932,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>84</v>
@@ -6926,7 +6946,7 @@
         <v>383</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>76</v>
@@ -6983,7 +7003,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>84</v>
@@ -6997,7 +7017,7 @@
         <v>383</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>76</v>
@@ -7065,13 +7085,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>68</v>
@@ -7082,19 +7102,19 @@
         <v>21</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="32" customFormat="1">
@@ -7102,19 +7122,19 @@
         <v>21</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1">
@@ -7122,19 +7142,19 @@
         <v>21</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1">
@@ -7142,7 +7162,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>128</v>
@@ -7162,7 +7182,7 @@
         <v>169</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>170</v>
@@ -7176,13 +7196,13 @@
         <v>22</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="G34" s="42" t="s">
         <v>64</v>
@@ -7258,7 +7278,7 @@
         <v>62</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="43" customFormat="1">
@@ -7269,7 +7289,7 @@
         <v>169</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>170</v>
@@ -7283,13 +7303,13 @@
         <v>22</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -7328,7 +7348,7 @@
         <v>62</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J40" s="32" t="s">
         <v>84</v>
@@ -7365,7 +7385,7 @@
         <v>62</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="43" customFormat="1">
@@ -7376,7 +7396,7 @@
         <v>169</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>170</v>
@@ -7390,13 +7410,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -7472,7 +7492,7 @@
         <v>62</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="43" customFormat="1">
@@ -7480,13 +7500,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>68</v>
@@ -7497,10 +7517,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>64</v>
@@ -7514,10 +7534,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>63</v>
@@ -7736,7 +7756,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>637</v>
@@ -7769,7 +7789,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>640</v>
@@ -7802,7 +7822,7 @@
         <v>642</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>643</v>
@@ -7835,7 +7855,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>646</v>
@@ -7865,15 +7885,15 @@
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1">
       <c r="A8" s="32" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>64</v>
@@ -7894,15 +7914,15 @@
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1">
       <c r="A9" s="32" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>64</v>
@@ -7923,15 +7943,15 @@
     </row>
     <row r="10" spans="1:13" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>64</v>
@@ -7952,15 +7972,15 @@
     </row>
     <row r="11" spans="1:13" s="33" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>64</v>
@@ -7981,12 +8001,12 @@
     </row>
     <row r="12" spans="1:13" s="33" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>470</v>
@@ -8010,12 +8030,12 @@
     </row>
     <row r="13" spans="1:13" s="33" customFormat="1">
       <c r="A13" s="32" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>470</v>
@@ -8039,12 +8059,12 @@
     </row>
     <row r="14" spans="1:13" s="33" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>470</v>
@@ -8068,12 +8088,12 @@
     </row>
     <row r="15" spans="1:13" s="33" customFormat="1">
       <c r="A15" s="32" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>470</v>
@@ -8097,12 +8117,12 @@
     </row>
     <row r="16" spans="1:13" s="33" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>470</v>
@@ -8126,10 +8146,10 @@
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>470</v>
@@ -8149,10 +8169,10 @@
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>470</v>
@@ -8172,10 +8192,10 @@
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>470</v>
@@ -8195,10 +8215,10 @@
     </row>
     <row r="20" spans="1:13" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>470</v>
@@ -8218,10 +8238,10 @@
     </row>
     <row r="21" spans="1:13" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>470</v>
@@ -8241,10 +8261,10 @@
     </row>
     <row r="22" spans="1:13" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>470</v>
@@ -8264,12 +8284,12 @@
     </row>
     <row r="23" spans="1:13" s="33" customFormat="1">
       <c r="A23" s="32" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>470</v>
@@ -8293,12 +8313,12 @@
     </row>
     <row r="24" spans="1:13" s="33" customFormat="1">
       <c r="A24" s="32" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>470</v>
@@ -8322,12 +8342,12 @@
     </row>
     <row r="25" spans="1:13" s="33" customFormat="1">
       <c r="A25" s="32" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>470</v>
@@ -8351,15 +8371,15 @@
     </row>
     <row r="26" spans="1:13" s="33" customFormat="1">
       <c r="A26" s="32" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>64</v>
@@ -16774,7 +16794,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16798,7 +16818,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -16818,7 +16838,7 @@
         <v>654</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="32" customFormat="1">
@@ -16835,7 +16855,7 @@
         <v>655</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="32" customFormat="1">
@@ -16852,7 +16872,7 @@
         <v>656</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="32" customFormat="1">
@@ -16869,126 +16889,126 @@
         <v>657</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="32" customFormat="1">
       <c r="A6" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>658</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>660</v>
-      </c>
       <c r="E6" s="32" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1">
       <c r="A7" s="32" t="s">
-        <v>661</v>
+        <v>601</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>662</v>
+        <v>602</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1">
       <c r="A8" s="32" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1">
       <c r="A9" s="32" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>447</v>
+        <v>660</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>672</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>604</v>
+        <v>766</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>605</v>
+        <v>767</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>665</v>
+        <v>768</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>606</v>
+        <v>769</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>666</v>
+        <v>447</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>607</v>
+        <v>770</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1"/>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="785">
   <si>
     <t>type</t>
   </si>
@@ -2319,9 +2319,6 @@
     <t>../training_measures</t>
   </si>
   <si>
-    <t>0.3.6</t>
-  </si>
-  <si>
     <t>1.8.0</t>
   </si>
   <si>
@@ -2353,6 +2350,51 @@
   </si>
   <si>
     <t>$1.71/hour</t>
+  </si>
+  <si>
+    <t>0.3.7</t>
+  </si>
+  <si>
+    <t>Worker Initialization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script</t>
+  </si>
+  <si>
+    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Worker Finalization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script)</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio South</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio East</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio North</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio West</t>
+  </si>
+  <si>
+    <t>Overhangs PF South</t>
+  </si>
+  <si>
+    <t>Overhangs PF East</t>
+  </si>
+  <si>
+    <t>Overhangs PF West</t>
   </si>
 </sst>
 </file>
@@ -2496,8 +2538,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1481">
+  <cellStyleXfs count="1491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4075,7 +4127,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1481">
+  <cellStyles count="1491">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4816,6 +4868,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5556,6 +5613,11 @@
     <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5855,11 +5917,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5896,7 +5956,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5918,7 +5978,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5935,7 +5995,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6002,16 +6062,16 @@
     </row>
     <row r="10" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A10" s="33" t="s">
+        <v>760</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>761</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>762</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1">
@@ -6396,6 +6456,48 @@
       <c r="E43" s="11"/>
       <c r="F43" s="13" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A46" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
+      <c r="B47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" s="33" customFormat="1">
+      <c r="B48" s="28"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A49" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="13" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -6431,8 +6533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6769,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>383</v>
+        <v>778</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>675</v>
@@ -6856,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>383</v>
+        <v>779</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>675</v>
@@ -6943,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>383</v>
+        <v>780</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>675</v>
@@ -7014,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>383</v>
+        <v>781</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>675</v>
@@ -7179,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>169</v>
+        <v>782</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>693</v>
@@ -7286,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>169</v>
+        <v>783</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>693</v>
@@ -7393,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>169</v>
+        <v>784</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>693</v>
@@ -16906,7 +17008,7 @@
         <v>658</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1">
@@ -16923,7 +17025,7 @@
         <v>656</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1">
@@ -16940,7 +17042,7 @@
         <v>657</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1">
@@ -16957,7 +17059,7 @@
         <v>659</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16974,21 +17076,21 @@
         <v>661</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>767</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>768</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>664</v>
@@ -16996,16 +17098,16 @@
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>664</v>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
@@ -2319,9 +2319,6 @@
     <t>../training_measures</t>
   </si>
   <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
     <t>AWS Tag</t>
   </si>
   <si>
@@ -2352,9 +2349,6 @@
     <t>$1.71/hour</t>
   </si>
   <si>
-    <t>0.3.7</t>
-  </si>
-  <si>
     <t>Worker Initialization Scripts - Name</t>
   </si>
   <si>
@@ -2395,6 +2389,12 @@
   </si>
   <si>
     <t>Overhangs PF West</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
   </si>
 </sst>
 </file>
@@ -5919,7 +5919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5956,7 +5958,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5978,7 +5980,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -6062,16 +6064,16 @@
     </row>
     <row r="10" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A10" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>760</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>761</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1">
@@ -6460,18 +6462,18 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>772</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>773</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6486,18 +6488,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -6871,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>675</v>
@@ -6958,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>675</v>
@@ -7045,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>675</v>
@@ -7116,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>675</v>
@@ -7281,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>693</v>
@@ -7388,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>693</v>
@@ -7495,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>693</v>
@@ -17008,7 +17010,7 @@
         <v>658</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1">
@@ -17025,7 +17027,7 @@
         <v>656</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1">
@@ -17042,7 +17044,7 @@
         <v>657</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1">
@@ -17059,7 +17061,7 @@
         <v>659</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -17076,21 +17078,21 @@
         <v>661</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>766</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>767</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>664</v>
@@ -17098,16 +17100,16 @@
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>664</v>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -2394,7 +2394,7 @@
     <t>0.4.0</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.3</t>
   </si>
 </sst>
 </file>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -1869,15 +1869,9 @@
     <t>Default Cluster</t>
   </si>
   <si>
-    <t>Number of worker nodes to start.</t>
-  </si>
-  <si>
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -1896,9 +1890,6 @@
     <t>West</t>
   </si>
   <si>
-    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
-  </si>
-  <si>
     <t>Relative to this spreadsheet or absolute path</t>
   </si>
   <si>
@@ -2391,10 +2382,19 @@
     <t>Overhangs PF West</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Choose which OpenStudio Server Version to use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/api/amis_v2.json</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
+  </si>
+  <si>
+    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
   </si>
 </sst>
 </file>
@@ -2538,8 +2538,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1491">
+  <cellStyleXfs count="1495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4127,7 +4131,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1491">
+  <cellStyles count="1495">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4873,6 +4877,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5618,6 +5624,8 @@
     <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5919,9 +5927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5958,7 +5964,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5980,10 +5986,10 @@
         <v>471</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>618</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46" customHeight="1">
@@ -6017,7 +6023,7 @@
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28">
@@ -6043,7 +6049,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6052,28 +6058,28 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="36" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>609</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A10" s="33" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1">
@@ -6091,7 +6097,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
@@ -6102,10 +6108,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6116,7 +6122,7 @@
         <v>452</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6138,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>611</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6168,7 +6174,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -6195,13 +6201,13 @@
         <v>451</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="13" t="s">
@@ -6392,7 +6398,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>31</v>
@@ -6406,7 +6412,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6420,7 +6426,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="13" t="s">
@@ -6432,13 +6438,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
@@ -6452,28 +6458,28 @@
         <v>34</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="13" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6488,18 +6494,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="11" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="13" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -6535,9 +6541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -6634,7 +6638,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -6699,13 +6703,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>68</v>
@@ -6791,13 +6795,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="R7" s="42" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="32" customFormat="1">
@@ -6822,10 +6826,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>64</v>
@@ -6873,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>76</v>
@@ -6890,7 +6894,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>77</v>
@@ -6960,10 +6964,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>76</v>
@@ -6977,7 +6981,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>77</v>
@@ -7036,7 +7040,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>84</v>
@@ -7047,10 +7051,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>76</v>
@@ -7107,7 +7111,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>84</v>
@@ -7118,10 +7122,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>76</v>
@@ -7178,7 +7182,7 @@
         <v>62</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J27" s="32" t="s">
         <v>84</v>
@@ -7189,13 +7193,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>68</v>
@@ -7206,19 +7210,19 @@
         <v>21</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="32" customFormat="1">
@@ -7226,19 +7230,19 @@
         <v>21</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1">
@@ -7246,19 +7250,19 @@
         <v>21</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1">
@@ -7266,7 +7270,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>128</v>
@@ -7283,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>170</v>
@@ -7300,13 +7304,13 @@
         <v>22</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G34" s="42" t="s">
         <v>64</v>
@@ -7382,7 +7386,7 @@
         <v>62</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="43" customFormat="1">
@@ -7390,10 +7394,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>170</v>
@@ -7407,13 +7411,13 @@
         <v>22</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -7452,7 +7456,7 @@
         <v>62</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J40" s="32" t="s">
         <v>84</v>
@@ -7489,7 +7493,7 @@
         <v>62</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="43" customFormat="1">
@@ -7497,10 +7501,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>170</v>
@@ -7514,13 +7518,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -7559,7 +7563,7 @@
         <v>62</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J45" s="32" t="s">
         <v>84</v>
@@ -7596,7 +7600,7 @@
         <v>62</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="43" customFormat="1">
@@ -7604,13 +7608,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>68</v>
@@ -7621,10 +7625,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>64</v>
@@ -7638,10 +7642,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>63</v>
@@ -7783,10 +7787,10 @@
         <v>461</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>462</v>
@@ -7798,40 +7802,40 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>463</v>
@@ -7843,30 +7847,30 @@
         <v>463</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="33" customFormat="1">
       <c r="A4" s="32" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>470</v>
@@ -7890,16 +7894,16 @@
     </row>
     <row r="5" spans="1:13" s="33" customFormat="1">
       <c r="A5" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>470</v>
@@ -7923,16 +7927,16 @@
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1">
       <c r="A6" s="32" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>470</v>
@@ -7956,16 +7960,16 @@
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1">
       <c r="A7" s="32" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>470</v>
@@ -7989,15 +7993,15 @@
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1">
       <c r="A8" s="32" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>64</v>
@@ -8018,15 +8022,15 @@
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1">
       <c r="A9" s="32" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>64</v>
@@ -8047,15 +8051,15 @@
     </row>
     <row r="10" spans="1:13" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>64</v>
@@ -8076,15 +8080,15 @@
     </row>
     <row r="11" spans="1:13" s="33" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>64</v>
@@ -8105,12 +8109,12 @@
     </row>
     <row r="12" spans="1:13" s="33" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>470</v>
@@ -8134,12 +8138,12 @@
     </row>
     <row r="13" spans="1:13" s="33" customFormat="1">
       <c r="A13" s="32" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>470</v>
@@ -8163,12 +8167,12 @@
     </row>
     <row r="14" spans="1:13" s="33" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>470</v>
@@ -8192,12 +8196,12 @@
     </row>
     <row r="15" spans="1:13" s="33" customFormat="1">
       <c r="A15" s="32" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>470</v>
@@ -8221,12 +8225,12 @@
     </row>
     <row r="16" spans="1:13" s="33" customFormat="1">
       <c r="A16" s="32" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>470</v>
@@ -8250,10 +8254,10 @@
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>470</v>
@@ -8273,10 +8277,10 @@
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>470</v>
@@ -8296,10 +8300,10 @@
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>470</v>
@@ -8319,10 +8323,10 @@
     </row>
     <row r="20" spans="1:13" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>470</v>
@@ -8342,10 +8346,10 @@
     </row>
     <row r="21" spans="1:13" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>470</v>
@@ -8365,10 +8369,10 @@
     </row>
     <row r="22" spans="1:13" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>470</v>
@@ -8388,12 +8392,12 @@
     </row>
     <row r="23" spans="1:13" s="33" customFormat="1">
       <c r="A23" s="32" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>470</v>
@@ -8417,12 +8421,12 @@
     </row>
     <row r="24" spans="1:13" s="33" customFormat="1">
       <c r="A24" s="32" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>470</v>
@@ -8446,12 +8450,12 @@
     </row>
     <row r="25" spans="1:13" s="33" customFormat="1">
       <c r="A25" s="32" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>470</v>
@@ -8475,15 +8479,15 @@
     </row>
     <row r="26" spans="1:13" s="33" customFormat="1">
       <c r="A26" s="32" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>64</v>
@@ -16922,7 +16926,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -16930,19 +16934,19 @@
     </row>
     <row r="2" spans="1:7" s="32" customFormat="1">
       <c r="A2" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>654</v>
-      </c>
       <c r="E2" s="32" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="32" customFormat="1">
@@ -16956,10 +16960,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="32" customFormat="1">
@@ -16973,10 +16977,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="32" customFormat="1">
@@ -16990,10 +16994,10 @@
         <v>598</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="32" customFormat="1">
@@ -17007,10 +17011,10 @@
         <v>600</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1">
@@ -17024,10 +17028,10 @@
         <v>602</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1">
@@ -17041,10 +17045,10 @@
         <v>603</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1">
@@ -17058,10 +17062,10 @@
         <v>605</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -17069,50 +17073,50 @@
         <v>606</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>607</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1"/>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -16,21 +16,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
-    <definedName name="AnalysisType">Lookups!$A$21:$A$29</definedName>
-    <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
-    <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
-    <definedName name="nsga">Lookups!$O$22:$P$28</definedName>
-    <definedName name="nsga_nrel">Lookups!$O$22:$P$28</definedName>
-    <definedName name="optim">Lookups!$I$21:$J$26</definedName>
-    <definedName name="rgenoud">Lookups!$L$21:$M$31</definedName>
-    <definedName name="samplemethod">Lookups!$A$16:$A$18</definedName>
-    <definedName name="SensitivityType">Lookups!$A$16:$A$17</definedName>
-    <definedName name="sentivity">Lookups!$A$16:$A$17</definedName>
-    <definedName name="simulate_data_point">Lookups!$G$16</definedName>
-    <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
-    <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
+    <definedName name="AnalysisType">Lookups!$A$19:$A$27</definedName>
+    <definedName name="instance_defs">Lookups!$A$2:$E$10</definedName>
+    <definedName name="instance_types">Lookups!$A$2:$A$10</definedName>
+    <definedName name="nsga">Lookups!$O$20:$P$26</definedName>
+    <definedName name="nsga_nrel">Lookups!$O$20:$P$26</definedName>
+    <definedName name="optim">Lookups!$I$19:$J$24</definedName>
+    <definedName name="rgenoud">Lookups!$L$19:$M$29</definedName>
+    <definedName name="samplemethod">Lookups!$A$14:$A$16</definedName>
+    <definedName name="SensitivityType">Lookups!$A$14:$A$15</definedName>
+    <definedName name="sentivity">Lookups!$A$14:$A$15</definedName>
+    <definedName name="simulate_data_point">Lookups!$G$14</definedName>
+    <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
+    <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="784">
   <si>
     <t>type</t>
   </si>
@@ -1590,9 +1590,6 @@
     <t>peak_use_flow_rate</t>
   </si>
   <si>
-    <t>new_user</t>
-  </si>
-  <si>
     <t>SetChillerCOP</t>
   </si>
   <si>
@@ -1866,9 +1863,6 @@
     <t>$1.68/hour</t>
   </si>
   <si>
-    <t>Default Cluster</t>
-  </si>
-  <si>
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
@@ -2007,9 +2001,6 @@
     <t>Recommended for Server</t>
   </si>
   <si>
-    <t>Recommended for Server if large analysis because of storage</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2166,21 +2157,6 @@
     <t>Recommended for worker</t>
   </si>
   <si>
-    <t>i2.xlarge</t>
-  </si>
-  <si>
-    <t>$0.85/hour</t>
-  </si>
-  <si>
-    <t>800 GB</t>
-  </si>
-  <si>
-    <t>i2.2xlarge</t>
-  </si>
-  <si>
-    <t>$1.71/hour</t>
-  </si>
-  <si>
     <t>AWS Tag</t>
   </si>
   <si>
@@ -2217,9 +2193,6 @@
     <t>Window to Wall Ratio East</t>
   </si>
   <si>
-    <t>1.9.3</t>
-  </si>
-  <si>
     <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
   </si>
   <si>
@@ -2410,6 +2383,15 @@
   </si>
   <si>
     <t>standard_report_legacy.total_source_energy</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>1.11.0-rc3</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -4067,7 +4049,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4135,9 +4117,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4151,9 +4130,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4168,6 +4144,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1503">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5973,21 +5952,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5997,7 +5976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -6007,56 +5986,56 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>728</v>
+      <c r="B3" s="18" t="s">
+        <v>719</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>516</v>
+        <v>781</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>725</v>
+        <v>782</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>608</v>
+        <v>783</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -6071,15 +6050,15 @@
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -6097,7 +6076,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6106,31 +6085,31 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6140,29 +6119,29 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6170,10 +6149,10 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6184,7 +6163,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6192,10 +6171,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6206,23 +6185,23 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6231,7 +6210,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6239,40 +6218,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="23" customFormat="1">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v>Sample Method</v>
       </c>
       <c r="B25" s="18" t="str">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$19:$AC$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v>all_variables</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,1,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v>individual_variables / all_variables</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -6280,17 +6259,17 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="28">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v>Number of Samples</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$19:$AC$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v>300</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,2,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D26" s="27">
@@ -6298,165 +6277,165 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$19:$AC$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,3,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="23" customFormat="1">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$19:$AC$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,4,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="23" customFormat="1">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$19:$AC$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,5,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$19:$AC$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,6,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$19:$AC$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,7,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$19:$AC$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,8,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="23" customFormat="1">
       <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$19:$AC$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,9,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$19:$AC$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$28,10,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="23" customFormat="1">
       <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B35" s="18" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$19:$AC$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$29,11,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="23" customFormat="1">
       <c r="A36" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$30,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))=0,"",INDEX(Lookups!$C$19:$AC$30,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B36" s="18" t="str">
-        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$19:$AC$30,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1))=0,"",INDEX(Lookups!$C$19:$AC$30,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C36" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$19:$AC$30,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))=0,"",INDEX(Lookups!$C$19:$AC$30,12,3*MATCH(Setup!$B22,Lookups!$A$19:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6465,50 +6444,50 @@
       <c r="E37" s="6"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>455</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="28">
       <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>736</v>
+      <c r="D41" s="32" t="s">
+        <v>727</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
@@ -6516,54 +6495,54 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="B47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="23" customFormat="1">
       <c r="B48" s="18"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -6599,73 +6578,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+    <row r="1" spans="1:26" ht="18">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="39" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="41" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -6673,76 +6652,76 @@
         <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>639</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="P3" s="46" t="s">
+      <c r="O3" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="V3" s="9" t="s">
@@ -6758,24 +6737,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="29" customFormat="1">
       <c r="A4" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -6792,7 +6771,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="28" customFormat="1">
       <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
@@ -6825,7 +6804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
@@ -6855,16 +6834,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
@@ -6881,15 +6860,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>64</v>
@@ -6898,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
@@ -6915,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
@@ -6932,15 +6911,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="29" customFormat="1">
       <c r="A12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>76</v>
@@ -6949,12 +6928,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="28" customFormat="1">
       <c r="B13" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>77</v>
@@ -6982,7 +6961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
@@ -6999,7 +6978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
@@ -7019,15 +6998,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="29" customFormat="1">
       <c r="A16" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>76</v>
@@ -7036,12 +7015,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="28" customFormat="1">
       <c r="B17" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>77</v>
@@ -7069,7 +7048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="22" customFormat="1">
       <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="22" customFormat="1">
       <c r="B19" s="22" t="s">
         <v>21</v>
       </c>
@@ -7100,21 +7079,21 @@
         <v>62</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="29" customFormat="1">
       <c r="A20" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>76</v>
@@ -7123,7 +7102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="22" customFormat="1">
       <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
@@ -7140,7 +7119,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="22" customFormat="1">
       <c r="B22" s="22" t="s">
         <v>21</v>
       </c>
@@ -7157,7 +7136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="22" customFormat="1">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
@@ -7171,21 +7150,21 @@
         <v>62</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="A24" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>76</v>
@@ -7194,7 +7173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="22" customFormat="1">
       <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
@@ -7211,7 +7190,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="22" customFormat="1">
       <c r="B26" s="22" t="s">
         <v>21</v>
       </c>
@@ -7228,7 +7207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="22" customFormat="1">
       <c r="B27" s="22" t="s">
         <v>21</v>
       </c>
@@ -7242,95 +7221,95 @@
         <v>62</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J27" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="A28" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="22" customFormat="1">
       <c r="B29" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="22" customFormat="1">
       <c r="B30" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="22" customFormat="1">
       <c r="B31" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="22" customFormat="1">
       <c r="B32" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>128</v>
@@ -7342,15 +7321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="29" customFormat="1">
       <c r="A33" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>170</v>
@@ -7359,18 +7338,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="28" customFormat="1">
       <c r="B34" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>172</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>64</v>
@@ -7395,7 +7374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="22" customFormat="1">
       <c r="B35" s="22" t="s">
         <v>21</v>
       </c>
@@ -7415,7 +7394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="22" customFormat="1">
       <c r="B36" s="22" t="s">
         <v>21</v>
       </c>
@@ -7432,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="22" customFormat="1">
       <c r="B37" s="22" t="s">
         <v>21</v>
       </c>
@@ -7446,18 +7425,18 @@
         <v>62</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="29" customFormat="1">
       <c r="A38" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>170</v>
@@ -7466,18 +7445,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" s="28" customFormat="1">
       <c r="B39" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>172</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>64</v>
@@ -7502,7 +7481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="22" customFormat="1">
       <c r="B40" s="22" t="s">
         <v>21</v>
       </c>
@@ -7516,13 +7495,13 @@
         <v>62</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J40" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" s="22" customFormat="1">
       <c r="B41" s="22" t="s">
         <v>21</v>
       </c>
@@ -7539,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="22" customFormat="1">
       <c r="B42" s="22" t="s">
         <v>21</v>
       </c>
@@ -7553,18 +7532,18 @@
         <v>62</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="29" customFormat="1">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>170</v>
@@ -7573,18 +7552,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="28" customFormat="1">
       <c r="B44" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>64</v>
@@ -7609,7 +7588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="22" customFormat="1">
       <c r="B45" s="22" t="s">
         <v>21</v>
       </c>
@@ -7623,13 +7602,13 @@
         <v>62</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J45" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="22" customFormat="1">
       <c r="B46" s="22" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="22" customFormat="1">
       <c r="B47" s="22" t="s">
         <v>21</v>
       </c>
@@ -7660,35 +7639,35 @@
         <v>62</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="A48" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="22" customFormat="1">
       <c r="B49" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>64</v>
@@ -7697,15 +7676,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="22" customFormat="1">
       <c r="B50" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>63</v>
@@ -7714,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" customFormat="1" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -7742,7 +7721,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" customFormat="1" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -7770,7 +7749,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" customFormat="1" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -7798,7 +7777,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" customFormat="1" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -7826,7 +7805,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" customFormat="1" ht="15">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -7854,7 +7833,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -7882,7 +7861,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" customFormat="1" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -7910,7 +7889,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -7938,7 +7917,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -7966,7 +7945,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -7994,7 +7973,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8022,7 +8001,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8050,7 +8029,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8078,7 +8057,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8106,7 +8085,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8134,7 +8113,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8162,7 +8141,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -8190,7 +8169,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8218,7 +8197,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8246,7 +8225,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -8274,7 +8253,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8302,7 +8281,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8330,7 +8309,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8358,7 +8337,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -8386,7 +8365,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -8414,7 +8393,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -8442,7 +8421,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -8470,7 +8449,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -8498,7 +8477,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -8526,7 +8505,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -8554,7 +8533,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -8582,7 +8561,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -8610,7 +8589,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -8638,7 +8617,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -8666,7 +8645,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -8694,7 +8673,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -8722,7 +8701,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -8750,7 +8729,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -8778,7 +8757,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -8806,7 +8785,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -8834,7 +8813,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -8862,7 +8841,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -8890,7 +8869,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -8918,7 +8897,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -8946,7 +8925,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -8974,7 +8953,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9002,7 +8981,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9030,7 +9009,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9077,54 +9056,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35" t="s">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
       <c r="A2" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>462</v>
@@ -9136,75 +9115,75 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="K2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+      <c r="A3" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="G3" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>629</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="K3" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="L3" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>632</v>
-      </c>
       <c r="M3" s="9" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="22" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>470</v>
@@ -9226,18 +9205,18 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="22" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>470</v>
@@ -9259,18 +9238,18 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>633</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>635</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>470</v>
@@ -9287,23 +9266,23 @@
       <c r="I6" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>636</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>638</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>470</v>
@@ -9320,22 +9299,22 @@
       <c r="I7" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>64</v>
@@ -9354,17 +9333,17 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>64</v>
@@ -9383,17 +9362,17 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>64</v>
@@ -9412,17 +9391,17 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>64</v>
@@ -9441,14 +9420,14 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>470</v>
@@ -9470,14 +9449,14 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>470</v>
@@ -9499,14 +9478,14 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>470</v>
@@ -9528,12 +9507,12 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="22" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>470</v>
@@ -9551,12 +9530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>470</v>
@@ -9574,12 +9553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="22" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>470</v>
@@ -9597,12 +9576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="22" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>470</v>
@@ -9620,12 +9599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="22" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>470</v>
@@ -9643,12 +9622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>470</v>
@@ -9666,14 +9645,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="22" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>470</v>
@@ -9695,14 +9674,14 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="22" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>470</v>
@@ -9724,14 +9703,14 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="22" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>470</v>
@@ -9753,14 +9732,14 @@
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="22" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>470</v>
@@ -9782,14 +9761,14 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="22" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>470</v>
@@ -9811,17 +9790,17 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="22" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>64</v>
@@ -9840,7 +9819,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -9855,7 +9834,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -9870,202 +9849,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -10087,19 +10066,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10118,7 +10097,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10139,7 +10118,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10162,7 +10141,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -10185,7 +10164,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -10208,7 +10187,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -10231,7 +10210,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -10254,7 +10233,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -10277,7 +10256,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -10300,7 +10279,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -10323,7 +10302,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -10342,7 +10321,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -10363,7 +10342,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -10386,7 +10365,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -10409,7 +10388,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -10432,7 +10411,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -10455,7 +10434,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -10478,7 +10457,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -10501,7 +10480,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -10524,7 +10503,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -10547,7 +10526,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -10566,7 +10545,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -10589,7 +10568,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -10612,7 +10591,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -10635,7 +10614,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -10658,7 +10637,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -10681,7 +10660,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -10704,7 +10683,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -10727,7 +10706,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -10750,7 +10729,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -10773,7 +10752,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -10792,7 +10771,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -10813,7 +10792,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -10836,7 +10815,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -10859,7 +10838,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -10882,7 +10861,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -10905,7 +10884,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -10928,7 +10907,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -10951,7 +10930,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -10974,7 +10953,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -10997,7 +10976,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11016,7 +10995,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11037,7 +11016,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11060,7 +11039,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11083,7 +11062,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11106,7 +11085,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11129,7 +11108,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11152,7 +11131,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -11175,7 +11154,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -11198,7 +11177,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -11221,7 +11200,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -11240,7 +11219,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -11261,7 +11240,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -11284,7 +11263,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -11307,7 +11286,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -11330,7 +11309,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -11353,7 +11332,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -11376,7 +11355,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -11399,7 +11378,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -11422,7 +11401,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -11445,7 +11424,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -11464,7 +11443,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -11485,7 +11464,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -11510,7 +11489,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -11533,7 +11512,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -11556,7 +11535,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -11579,7 +11558,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -11602,7 +11581,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -11625,7 +11604,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -11648,7 +11627,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -11671,7 +11650,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -11694,7 +11673,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -11713,7 +11692,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -11734,7 +11713,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -11757,7 +11736,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -11782,7 +11761,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -11805,7 +11784,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -11828,7 +11807,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -11851,7 +11830,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -11874,7 +11853,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -11897,7 +11876,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -11920,7 +11899,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -11943,7 +11922,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -11966,7 +11945,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -11989,7 +11968,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12012,7 +11991,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12031,7 +12010,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12054,7 +12033,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12077,7 +12056,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12100,7 +12079,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12123,7 +12102,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12146,7 +12125,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12169,7 +12148,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -12192,7 +12171,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -12215,7 +12194,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -12238,7 +12217,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -12261,7 +12240,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -12280,7 +12259,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -12305,7 +12284,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -12324,7 +12303,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -12345,7 +12324,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -12370,7 +12349,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -12389,7 +12368,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -12412,7 +12391,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -12437,7 +12416,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -12460,7 +12439,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -12481,7 +12460,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -12500,7 +12479,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -12525,7 +12504,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -12548,7 +12527,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -12571,7 +12550,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -12594,7 +12573,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -12617,7 +12596,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -12640,7 +12619,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -12663,7 +12642,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -12682,7 +12661,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -12705,7 +12684,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -12728,7 +12707,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -12751,7 +12730,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -12770,7 +12749,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -12793,7 +12772,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -12816,7 +12795,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -12839,7 +12818,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -12862,7 +12841,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -12885,7 +12864,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -12908,7 +12887,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -12927,7 +12906,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -12952,7 +12931,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -12975,7 +12954,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -12998,7 +12977,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13021,7 +13000,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13044,7 +13023,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13067,7 +13046,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13090,7 +13069,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13113,7 +13092,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13136,7 +13115,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13155,7 +13134,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -13180,7 +13159,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -13201,7 +13180,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -13224,7 +13203,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -13247,7 +13226,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -13270,7 +13249,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -13293,7 +13272,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -13316,7 +13295,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -13339,7 +13318,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -13362,7 +13341,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -13385,7 +13364,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -13408,7 +13387,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -13431,7 +13410,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -13454,7 +13433,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -13477,7 +13456,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -13496,7 +13475,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -13519,7 +13498,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -13538,7 +13517,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -13561,7 +13540,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -13584,7 +13563,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -13603,7 +13582,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -13628,7 +13607,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -13651,7 +13630,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -13674,7 +13653,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -13697,7 +13676,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -13720,7 +13699,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -13743,7 +13722,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -13766,7 +13745,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -13789,7 +13768,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -13812,7 +13791,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -13835,7 +13814,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -13854,7 +13833,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -13879,7 +13858,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -13902,7 +13881,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -13925,7 +13904,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -13948,7 +13927,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -13971,7 +13950,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -13994,7 +13973,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14017,7 +13996,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14040,7 +14019,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14063,7 +14042,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14086,7 +14065,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14105,7 +14084,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14128,7 +14107,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14151,7 +14130,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14174,7 +14153,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -14197,7 +14176,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -14216,7 +14195,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -14239,7 +14218,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -14262,7 +14241,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -14285,7 +14264,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -14308,7 +14287,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -14327,7 +14306,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -14348,7 +14327,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -14371,7 +14350,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -14390,7 +14369,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -14413,7 +14392,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -14438,7 +14417,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -14459,7 +14438,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -14484,7 +14463,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -14509,7 +14488,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -14528,7 +14507,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -14553,7 +14532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -14576,7 +14555,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -14599,7 +14578,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -14622,7 +14601,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -14645,7 +14624,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -14668,7 +14647,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -14691,7 +14670,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -14714,7 +14693,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -14737,7 +14716,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -14756,7 +14735,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -14781,7 +14760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -14804,7 +14783,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -14827,7 +14806,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -14850,7 +14829,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -14873,7 +14852,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -14896,7 +14875,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -14919,7 +14898,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -14942,7 +14921,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -14965,7 +14944,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -14984,7 +14963,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15005,7 +14984,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15028,7 +15007,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15051,7 +15030,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15074,7 +15053,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15097,7 +15076,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15120,7 +15099,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15143,7 +15122,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15166,7 +15145,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -15189,7 +15168,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -15212,7 +15191,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -15235,7 +15214,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -15258,7 +15237,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -15281,7 +15260,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -15304,7 +15283,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -15327,7 +15306,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -15350,7 +15329,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -15369,7 +15348,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -15390,7 +15369,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -15413,7 +15392,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -15436,7 +15415,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -15459,7 +15438,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -15482,7 +15461,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -15505,7 +15484,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -15528,7 +15507,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -15551,7 +15530,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -15574,7 +15553,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -15597,7 +15576,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -15620,7 +15599,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -15643,7 +15622,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -15666,7 +15645,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -15689,7 +15668,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -15712,7 +15691,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -15735,7 +15714,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -15754,7 +15733,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -15779,7 +15758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -15802,7 +15781,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -15825,7 +15804,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -15848,7 +15827,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -15871,7 +15850,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -15890,7 +15869,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -15915,7 +15894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -15938,7 +15917,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -15957,7 +15936,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -15976,7 +15955,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -15995,7 +15974,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16016,7 +15995,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16039,7 +16018,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16062,7 +16041,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16085,7 +16064,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16108,7 +16087,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16131,7 +16110,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16154,7 +16133,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -16177,7 +16156,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -16200,7 +16179,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -16223,7 +16202,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -16246,7 +16225,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -16265,7 +16244,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -16288,7 +16267,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -16307,7 +16286,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -16332,7 +16311,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -16355,7 +16334,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -16378,7 +16357,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -16401,7 +16380,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -16424,7 +16403,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -16447,7 +16426,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -16470,7 +16449,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -16493,7 +16472,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -16516,7 +16495,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -16539,7 +16518,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -16562,7 +16541,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -16581,7 +16560,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -16604,7 +16583,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -16623,7 +16602,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -16644,7 +16623,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -16663,7 +16642,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -16684,7 +16663,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -16703,7 +16682,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -16724,7 +16703,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -16743,7 +16722,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -16766,7 +16745,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -16785,7 +16764,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -16810,7 +16789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -16833,7 +16812,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -16856,7 +16835,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -16879,7 +16858,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -16902,7 +16881,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -16925,7 +16904,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -16948,7 +16927,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -16971,7 +16950,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -16994,7 +16973,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17013,7 +16992,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17036,7 +17015,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17059,7 +17038,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17082,7 +17061,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17105,7 +17084,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17124,7 +17103,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17147,7 +17126,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17170,7 +17149,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -17195,7 +17174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -17214,7 +17193,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -17239,7 +17218,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -17262,7 +17241,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -17281,7 +17260,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -17302,7 +17281,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -17323,7 +17302,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -17346,7 +17325,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -17365,7 +17344,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -17384,7 +17363,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -17409,7 +17388,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -17434,7 +17413,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17448,7 +17427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17471,7 +17450,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17491,7 +17470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -17511,7 +17490,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -17531,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -17548,7 +17527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -17571,7 +17550,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -17594,7 +17573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17608,7 +17587,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -17631,7 +17610,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -17654,7 +17633,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -17674,7 +17653,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -17694,7 +17673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -17711,15 +17690,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>68</v>
@@ -17737,7 +17716,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -17746,7 +17725,7 @@
         <v>481</v>
       </c>
       <c r="D343" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -17755,10 +17734,10 @@
         <v>62</v>
       </c>
       <c r="H343" t="s">
+        <v>520</v>
+      </c>
+      <c r="I343" t="s">
         <v>521</v>
-      </c>
-      <c r="I343" t="s">
-        <v>522</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -17766,16 +17745,16 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
       </c>
       <c r="C344" t="s">
+        <v>518</v>
+      </c>
+      <c r="D344" t="s">
         <v>519</v>
-      </c>
-      <c r="D344" t="s">
-        <v>520</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -17805,29 +17784,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C345" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -17839,7 +17818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -17853,7 +17832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -17873,7 +17852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -17893,7 +17872,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -17913,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -17933,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -17953,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -17973,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -17993,7 +17972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18013,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18033,29 +18012,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C357" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D357" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
       <c r="C358" t="s">
+        <v>528</v>
+      </c>
+      <c r="D358" t="s">
         <v>529</v>
-      </c>
-      <c r="D358" t="s">
-        <v>530</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -18067,15 +18046,15 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D359" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -18087,15 +18066,15 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>68</v>
@@ -18103,7 +18082,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18111,7 +18090,7 @@
         <v>481</v>
       </c>
       <c r="D361" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -18121,24 +18100,24 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
+        <v>520</v>
+      </c>
+      <c r="I361" t="s">
         <v>521</v>
-      </c>
-      <c r="I361" t="s">
-        <v>522</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
       </c>
       <c r="C362" t="s">
+        <v>518</v>
+      </c>
+      <c r="D362" t="s">
         <v>519</v>
-      </c>
-      <c r="D362" t="s">
-        <v>520</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -18170,29 +18149,29 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C363" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
       <c r="C364" t="s">
+        <v>534</v>
+      </c>
+      <c r="D364" t="s">
         <v>535</v>
-      </c>
-      <c r="D364" t="s">
-        <v>536</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -18204,29 +18183,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C365" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D366" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -18251,23 +18230,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18278,115 +18257,115 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>645</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>445</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="22" customFormat="1">
+      <c r="A4" s="22" t="s">
         <v>594</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>595</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1">
+      <c r="A5" s="22" t="s">
         <v>596</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>597</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="22" customFormat="1">
+      <c r="A6" s="22" t="s">
         <v>598</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>599</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>445</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>600</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>601</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -18394,481 +18373,447 @@
         <v>447</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>603</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>604</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>448</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="B10" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>650</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>652</v>
-      </c>
       <c r="E10" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>711</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>712</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1"/>
+    <row r="12" spans="1:7" s="22" customFormat="1"/>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>572</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E13" t="s">
+        <v>557</v>
+      </c>
+      <c r="G13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>558</v>
+      </c>
+      <c r="G14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1"/>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>559</v>
+      </c>
+      <c r="L18" t="s">
+        <v>562</v>
+      </c>
+      <c r="O18" t="s">
+        <v>566</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="X18" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>551</v>
+      </c>
+      <c r="F19" t="s">
         <v>573</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="E15" t="s">
-        <v>558</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G19" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>559</v>
-      </c>
-      <c r="G16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>582</v>
+      </c>
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB19" s="22">
+        <v>30</v>
+      </c>
+      <c r="AC19" s="22" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>551</v>
-      </c>
-      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>591</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K20" t="s">
+        <v>579</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>544</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J21" s="21">
+        <v>45036000000000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>578</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>586</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="P21">
+        <v>0.85</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>553</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>577</v>
+      </c>
+      <c r="L22" t="s">
+        <v>583</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>584</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
         <v>552</v>
       </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>560</v>
-      </c>
-      <c r="L20" t="s">
-        <v>563</v>
-      </c>
-      <c r="O20" t="s">
-        <v>567</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>555</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="X20" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>552</v>
-      </c>
-      <c r="F21" t="s">
-        <v>574</v>
-      </c>
-      <c r="G21" t="s">
-        <v>456</v>
-      </c>
-      <c r="H21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J23" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M23" s="21">
         <v>0.01</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="M21">
-        <v>30</v>
-      </c>
-      <c r="N21" t="s">
-        <v>583</v>
-      </c>
-      <c r="O21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA21" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB21" s="22">
-        <v>30</v>
-      </c>
-      <c r="AC21" s="22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>592</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="K22" t="s">
-        <v>580</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="M22">
-        <v>5</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>545</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J23" s="21">
-        <v>45036000000000</v>
-      </c>
-      <c r="K23" t="s">
-        <v>579</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>587</v>
+      <c r="N23" s="23" t="s">
+        <v>585</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P23">
-        <v>0.85</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
         <v>554</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J24">
-        <v>100</v>
+        <v>543</v>
+      </c>
+      <c r="J24" s="23">
+        <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>578</v>
-      </c>
-      <c r="L24" t="s">
-        <v>584</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>585</v>
+        <v>576</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>580</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Q24" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>553</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>543</v>
+        <v>555</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="J25" s="23">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>724</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="M25" s="21">
         <v>0.01</v>
       </c>
-      <c r="N25" s="23" t="s">
-        <v>586</v>
+      <c r="N25" s="22" t="s">
+        <v>579</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>555</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J26" s="23">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
+        <v>720</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M26" s="21">
+        <v>45036000000000</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="P26" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
+        <v>721</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="M27" s="22">
+        <v>100</v>
+      </c>
+      <c r="N27" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="O27" t="s">
+        <v>723</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="L28" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="M26" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="P26">
-        <v>0.8</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>556</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="J27" s="23">
-        <v>0</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>733</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="M27" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="O27" s="23" t="s">
+      <c r="M28" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="P27" s="23" t="s">
+    </row>
+    <row r="29" spans="1:29">
+      <c r="L29" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>729</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="M28" s="21">
-        <v>45036000000000</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="P28" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>730</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="M29" s="22">
-        <v>100</v>
+      <c r="M29" s="23">
+        <v>2</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="O29" t="s">
-        <v>732</v>
-      </c>
-      <c r="P29" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L30" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L31" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="M31" s="23">
-        <v>2</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L32" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="M32" s="23">
-        <v>0</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>733</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="L30" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -5952,8 +5952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18232,7 +18232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>

--- a/projects/training_lhs1.xlsx
+++ b/projects/training_lhs1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2388,10 +2388,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>1.11.0-rc3</t>
-  </si>
-  <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>1.12.4</t>
   </si>
 </sst>
 </file>
@@ -5953,7 +5953,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6013,7 +6013,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>614</v>
@@ -6024,7 +6024,7 @@
         <v>472</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>474</v>
